--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D4AA1-C4F2-4D5A-9A0B-CF095B441896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278E7EA-69ED-4918-A382-AD9594FDFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -283,18 +283,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -357,33 +347,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{04098DE4-87E8-47C0-9579-5A55AF1FE122}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{8E68F913-8DAB-482A-B615-15A1F117EB23}">
       <text>
         <r>
           <rPr>
@@ -561,7 +564,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -620,7 +623,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -645,16 +648,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기, (integer)
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - name={$value} (Resources/Timeline) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -669,7 +672,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A790986-672A-4864-9B9E-CE15186FDEAE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{498E9EB0-1553-403F-B471-AA7FB481F786}">
       <text>
         <r>
           <rPr>
@@ -866,6 +869,7 @@
 5: Save
 9: Random
 10: Random End
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -873,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{DE49FFA1-04AA-46C8-B673-149D86748A04}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{96CAF562-77F6-435F-BD7F-4EE7FFC762AE}">
       <text>
         <r>
           <rPr>
@@ -896,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E7D0A65C-4A13-4D60-BA39-579B591300D6}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E877F47A-1FC9-43CC-921A-86FCDD1D8E03}">
       <text>
         <r>
           <rPr>
@@ -906,18 +910,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -980,33 +974,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{B3607F97-033D-47FA-A76B-91442903A996}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{0627A2CF-6227-4830-9906-94C6DC94BB64}">
       <text>
         <r>
           <rPr>
@@ -1184,7 +1191,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -1243,7 +1250,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -1268,17 +1275,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
-v0, v1, v2, v3, v4 (순서 무관)
+v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - UI(기본), Field (대소문자 무관)
-v4 - Reset (Hold 상태를 없앰)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -1293,7 +1299,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{38C2CC79-6FB9-4858-996C-0544866D5E3F}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{5B698EC1-A640-4993-8E91-CFBCD8C3C964}">
       <text>
         <r>
           <rPr>
@@ -1490,6 +1496,7 @@
 5: Save
 9: Random
 10: Random End
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -1497,7 +1504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{D2D94FB0-173A-4030-AE2E-1EAD61413E28}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3BDFBF3F-7D5B-4AFB-BAEF-1010D8081A9D}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{2869BA60-CCC3-4245-B03D-67B0C9A9E79C}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{35A053BE-AC05-4B14-A6C1-1802AFB44D52}">
       <text>
         <r>
           <rPr>
@@ -1530,18 +1537,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -1604,33 +1601,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{730CDB88-AE2C-4B4D-BAB2-EE265E1B0B8A}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C9A24704-A57C-4B30-994E-08C1DD03FE03}">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1818,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -1867,7 +1877,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -1892,17 +1902,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
-v0, v1, v2, v3, v4 (순서 무관)
+v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - UI(기본), Field (대소문자 무관)
-v4 - Reset (Hold 상태를 없앰)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -1917,7 +1926,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{EEAC5DEF-DF3E-48F4-82CC-D4D36158E2E7}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8ABBAB43-E2E9-46E3-9B7C-0ABE1D5EBEE7}">
       <text>
         <r>
           <rPr>
@@ -2114,6 +2123,7 @@
 5: Save
 9: Random
 10: Random End
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -2121,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{08743773-6DB7-44BF-8E13-F0E9FCEEA844}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3F0B315B-85E7-43D8-AA89-EE209E425199}">
       <text>
         <r>
           <rPr>
@@ -2144,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E8AD1FB6-7076-4FEE-BC76-88755DB6D614}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C0FA0F43-2401-46CE-A7C2-21180200D58B}">
       <text>
         <r>
           <rPr>
@@ -2154,18 +2164,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -2228,33 +2228,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{8067323D-1352-4819-B1EA-E8277AF0DCDA}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D1F54D19-A034-4EFA-8F91-AB038A0AB885}">
       <text>
         <r>
           <rPr>
@@ -2432,7 +2445,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -2491,7 +2504,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -2516,17 +2529,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
-v0, v1, v2, v3, v4 (순서 무관)
+v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - UI(기본), Field (대소문자 무관)
-v4 - Reset (Hold 상태를 없앰)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -2541,7 +2553,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{F4502683-4C1D-45BD-ACA9-7B2784DB5DAC}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CE590442-47B2-47DB-B747-B586585B938B}">
       <text>
         <r>
           <rPr>
@@ -2738,6 +2750,7 @@
 5: Save
 9: Random
 10: Random End
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -2745,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5DD73045-1C1F-4388-9AD0-0A2A5CFCE917}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{1647D649-F159-4DE1-9A32-D5E1CF44D359}">
       <text>
         <r>
           <rPr>
@@ -2768,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{6E755101-7C7A-4D76-A582-242998191419}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9569BD11-38E1-47FB-92F5-97FFB1029E72}">
       <text>
         <r>
           <rPr>
@@ -2778,18 +2791,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -2852,33 +2855,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{8537E738-EE77-4795-BAA2-878145079E70}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7949C15A-0451-4294-A616-45474764CCC4}">
       <text>
         <r>
           <rPr>
@@ -3056,7 +3072,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -3115,7 +3131,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -3140,17 +3156,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
-v0, v1, v2, v3, v4 (순서 무관)
+v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - UI(기본), Field (대소문자 무관)
-v4 - Reset (Hold 상태를 없앰)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -3165,7 +3180,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3DD05476-A731-4275-986A-6F0410081167}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{67C9E311-B170-4226-B16C-E156F4CA4BD2}">
       <text>
         <r>
           <rPr>
@@ -3362,6 +3377,7 @@
 5: Save
 9: Random
 10: Random End
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -3369,7 +3385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{2DBFEDF6-5B7B-4013-B16B-8FDD90E4C759}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{ADEBC459-7FF0-4CBC-9C38-B2E530DC21FE}">
       <text>
         <r>
           <rPr>
@@ -3392,7 +3408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{4D399437-8710-4CDE-994E-6990D16E167F}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9D24C82E-4EAD-4613-8F55-7291FA945994}">
       <text>
         <r>
           <rPr>
@@ -3402,18 +3418,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Default = -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Keep = 0 (</t>
+          <t>Default = -1
+Keep = 0 (</t>
         </r>
         <r>
           <rPr>
@@ -3476,33 +3482,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Action1 = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>...</t>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5EE9D6E2-EEB9-4ECE-A6A9-15CEE4CECDD6}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{88CAFF40-CA00-4EBB-9FAB-1DD0968863C5}">
       <text>
         <r>
           <rPr>
@@ -3680,7 +3699,7 @@
             <family val="2"/>
             <charset val="129"/>
           </rPr>
-          <t>)
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
 v0 : v1 (</t>
         </r>
         <r>
@@ -3739,7 +3758,7 @@
             <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
-- 1 (스크립트)
+- 1 (Script)
 </t>
         </r>
         <r>
@@ -3764,17 +3783,16 @@
             <charset val="129"/>
           </rPr>
           <t>1(value) : {$value}배속
-- 캐릭터 등장
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
 v0, v1 (순서 무관)
 v0 - Left, Right
 v1 - Appear, Active, Inactive, Disappear
 - 컷씬
-v0, v1, v2, v3, v4 (순서 무관)
+v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 동안 자동 넘김 혹은 입력 대기
-v2 - true, false 스킵가능 여부 (Default - true)  (대소문자 무관)
-v3 - UI(기본), Field (대소문자 무관)
-v4 - Reset (Hold 상태를 없앰)</t>
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
     </comment>
@@ -3783,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4026,11 +4044,6 @@
   </si>
   <si>
     <t>(…스스로를 본 딴 인형으로 추정된다.)</t>
-  </si>
-  <si>
-    <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.
-\n그 이후의 일은 동일하지. 원하다면 다른 ‘기억’들의 이야기를 더 들을 수도 있고, 돌아갈 수도 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>…너는 누구야?</t>
@@ -4519,14 +4532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hold, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건조하기는! 몇 번이나 말했듯 네가 정 의미를 찾지 못하겠다면 돌아가도 좋아.
 시간은 언제나 소중하고, 선택은 언제나 네 몫이야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4588,6 +4593,10 @@
   </si>
   <si>
     <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallRoomScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5058,14 +5067,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5139,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5149,13 +5158,13 @@
     <col min="2" max="2" width="26.875" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5302,7 +5311,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5316,7 +5325,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5349,7 +5358,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5363,7 +5372,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5377,7 +5386,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5405,7 +5414,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5425,7 +5434,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
@@ -5433,7 +5442,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5449,9 +5458,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -5519,7 +5526,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5561,7 +5568,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5575,7 +5582,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5603,7 +5610,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5631,7 +5638,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5678,7 +5685,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5687,7 +5694,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5701,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5717,7 +5724,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5792,7 +5799,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -5801,7 +5808,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5816,7 +5823,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5828,7 +5835,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5883,7 +5890,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5912,7 +5919,7 @@
     <row r="16" spans="1:16" ht="82.5">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="6">
         <v>6</v>
@@ -5920,7 +5927,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -5974,7 +5981,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5986,7 +5993,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5998,7 +6005,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6010,7 +6017,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -6020,7 +6027,7 @@
     <row r="25" spans="1:8" ht="49.5">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="6">
         <v>6</v>
@@ -6028,7 +6035,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -6073,7 +6080,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6097,7 +6104,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6106,7 +6113,7 @@
     </row>
     <row r="32" spans="1:8" ht="33">
       <c r="B32" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6166,7 +6173,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6196,7 +6203,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H39" s="4"/>
     </row>
@@ -6205,7 +6212,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6229,7 +6236,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -6253,7 +6260,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -6265,7 +6272,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6325,7 +6332,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -6355,7 +6362,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -6364,7 +6371,7 @@
         <v>31</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -6388,7 +6395,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6433,7 +6440,7 @@
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6451,7 +6458,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H60" s="4"/>
     </row>
@@ -6460,7 +6467,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6525,7 +6532,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -6594,7 +6601,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6605,7 +6612,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6616,7 +6623,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6660,7 +6667,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6671,7 +6678,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6834,15 +6841,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6910,7 +6917,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6922,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6936,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6963,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6979,7 +6986,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6995,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7008,7 +7015,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7019,7 +7026,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7037,7 +7044,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -7052,7 +7059,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -7121,7 +7128,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7149,7 +7156,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7159,12 +7166,14 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -7187,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9278E7EA-69ED-4918-A382-AD9594FDFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2595DD-552C-448C-8E4C-8D431124570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -242,7 +242,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -656,7 +656,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -672,7 +672,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{498E9EB0-1553-403F-B471-AA7FB481F786}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3ADCBB47-357E-40A4-AAC5-1E568139E75B}">
       <text>
         <r>
           <rPr>
@@ -869,7 +869,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -877,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{96CAF562-77F6-435F-BD7F-4EE7FFC762AE}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5BF35F2C-3D01-4815-94B3-BEFE2B1EF29A}">
       <text>
         <r>
           <rPr>
@@ -900,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{E877F47A-1FC9-43CC-921A-86FCDD1D8E03}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{47B3F92C-38B3-4F6F-B8D3-FF53BF66BDB4}">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{0627A2CF-6227-4830-9906-94C6DC94BB64}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{ACF9F59F-876B-42A0-BF4D-3A0B982A72BB}">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1283,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -1299,7 +1299,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{5B698EC1-A640-4993-8E91-CFBCD8C3C964}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{9DF3D2CD-3DB0-45B1-9A8B-6613B1C720AE}">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1496,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -1504,7 +1504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3BDFBF3F-7D5B-4AFB-BAEF-1010D8081A9D}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{80AA2B2B-65C6-4792-BC4C-E7D4CE2B011C}">
       <text>
         <r>
           <rPr>
@@ -1527,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{35A053BE-AC05-4B14-A6C1-1802AFB44D52}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{D1252488-E321-4764-9C3F-788563921961}">
       <text>
         <r>
           <rPr>
@@ -1640,7 +1640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{C9A24704-A57C-4B30-994E-08C1DD03FE03}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A03264A6-7803-4BC4-A4CE-18BD3B2384A3}">
       <text>
         <r>
           <rPr>
@@ -1910,7 +1910,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -1926,7 +1926,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{8ABBAB43-E2E9-46E3-9B7C-0ABE1D5EBEE7}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D11D9696-1626-4FA1-989A-2DEDAE2F40B6}">
       <text>
         <r>
           <rPr>
@@ -2123,7 +2123,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -2131,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3F0B315B-85E7-43D8-AA89-EE209E425199}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FA34427C-159A-4CE8-8C1E-201302D6D894}">
       <text>
         <r>
           <rPr>
@@ -2154,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C0FA0F43-2401-46CE-A7C2-21180200D58B}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{240FE18A-38BF-48C0-B531-C5F7B3968F73}">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D1F54D19-A034-4EFA-8F91-AB038A0AB885}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7DE9A465-774E-478B-B029-41E5D2FFBD6C}">
       <text>
         <r>
           <rPr>
@@ -2537,7 +2537,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -2553,7 +2553,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{CE590442-47B2-47DB-B747-B586585B938B}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A2998FF-3160-4987-894A-9B387EB644D0}">
       <text>
         <r>
           <rPr>
@@ -2750,7 +2750,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -2758,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{1647D649-F159-4DE1-9A32-D5E1CF44D359}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C381F002-8D0C-45FC-A69C-1590362A4DEE}">
       <text>
         <r>
           <rPr>
@@ -2781,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9569BD11-38E1-47FB-92F5-97FFB1029E72}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F34C390-C0D1-4FAC-8898-A0E781E0048C}">
       <text>
         <r>
           <rPr>
@@ -2894,7 +2894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7949C15A-0451-4294-A616-45474764CCC4}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6B5210AD-76D1-4D1E-884E-EFEB0BA4197C}">
       <text>
         <r>
           <rPr>
@@ -3164,7 +3164,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -3180,7 +3180,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{67C9E311-B170-4226-B16C-E156F4CA4BD2}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{65047D2A-113E-47D5-88B5-D93760949339}">
       <text>
         <r>
           <rPr>
@@ -3377,7 +3377,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -3385,7 +3385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{ADEBC459-7FF0-4CBC-9C38-B2E530DC21FE}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EAC96702-E8B5-48C0-A46E-59AEC199021C}">
       <text>
         <r>
           <rPr>
@@ -3408,7 +3408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9D24C82E-4EAD-4613-8F55-7291FA945994}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A53DC36-CDA6-4938-80C8-0CB283FF1961}">
       <text>
         <r>
           <rPr>
@@ -3521,7 +3521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{88CAFF40-CA00-4EBB-9FAB-1DD0968863C5}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9BFEC8A9-8528-4989-9F64-9E707EA5B744}">
       <text>
         <r>
           <rPr>
@@ -3791,7 +3791,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - false)  (대소문자 무관)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="127">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4523,11 +4523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(컷 씬)&gt; (컷 씬 전환): 주인공은 나루와 손을 잡고 주인공의 목걸이에서는 기묘한 빛이 난다.
-(컷 씬)&gt; (컷 씬 전환): 가정집으로 보이는 공간.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (컷 씬 전환): 가정집 배경 속 강아지와 그 앞의 밥그릇이 보인다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4546,10 +4541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Left, Disappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4597,6 +4588,29 @@
   </si>
   <si>
     <t>SmallRoomScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right,Appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이와 같은 경우 첫 대사에서 Left, Appear과 Right Appear이 동시에 작동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 가정집으로 보이는 공간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 주인공은 나루와 손을 잡고 주인공의 목걸이에서는 기묘한 빛이 난다.</t>
+  </si>
+  <si>
+    <t>Hold, 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5064,20 +5078,20 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5097,7 +5111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5135,6 +5149,90 @@
       </c>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5148,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5164,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5257,6 +5355,9 @@
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5434,7 +5535,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
@@ -5591,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -5605,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="115.5">
+    <row r="34" spans="1:4" ht="115.5">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5619,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="33">
+    <row r="35" spans="1:4" ht="33">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -5633,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="49.5">
+    <row r="36" spans="1:4" ht="49.5">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -5647,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -5661,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -5675,12 +5776,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:4">
       <c r="C39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="66">
+    <row r="40" spans="1:4" ht="66">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5692,9 +5793,6 @@
       </c>
       <c r="D40">
         <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5706,10 +5804,1369 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="33">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="33">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="82.5">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.5">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="66">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="5"/>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="49.5">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="66">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="5"/>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="51.75" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="33">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="66">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="115.5">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="66">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="33">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="82.5">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="33">
+      <c r="B33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="49.5">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="33">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="82.5">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="99">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="49.5">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" ht="33">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="82.5">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="33">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="49.5">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" ht="82.5">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="99">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="49.5">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="33">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="33">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" ht="99">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="49.5">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" ht="33">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" ht="33">
+      <c r="A64" s="6"/>
+      <c r="B64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D80C0E-6C2C-4983-9442-683187F41940}">
+  <dimension ref="A1:P63"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="82.5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="82.5">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="49.5">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5788,1341 +7245,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="33">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="33">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="82.5">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.5">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="66">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="5"/>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="49.5">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="66">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="5"/>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="82.5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="66">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="115.5">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="66">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="33">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="49.5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="6">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="49.5">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="66">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="82.5">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="33">
-      <c r="B32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="49.5">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="33">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="82.5">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="6">
-        <v>6</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="99">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="49.5">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" ht="82.5">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="33">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="49.5">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="33">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="82.5">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="6"/>
-      <c r="B52" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="6">
-        <v>6</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="99">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="49.5">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="33">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="33">
-      <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="99">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="49.5">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="6">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="33">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="33">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="6">
-        <v>6</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D80C0E-6C2C-4983-9442-683187F41940}">
-  <dimension ref="A1:P63"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="82.5">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="82.5">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="49.5">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
-  <dimension ref="A1:P61"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>27</v>
@@ -7170,7 +7292,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2595DD-552C-448C-8E4C-8D431124570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955FC4C-122D-404F-ADAB-DD26C14C228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3ACC3B38-DE92-45C1-8270-F6458F77132A}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D1BEF015-2224-4301-82B9-B650867B9DFF}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
 5: Save
 9: Random
 10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+11: Immediately Execute
 // Inspector창에서 직접 조정
 6: CutScene
 7: WaitInteract
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{55F3406C-DD2D-4558-AA61-7ED1D57CC430}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{4E42F7AA-E7BC-4A7B-A16F-366053596261}">
       <text>
         <r>
           <rPr>
@@ -273,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{EB430104-7C44-425D-816D-8017353F3388}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{FC26E258-34AA-4B78-B60C-093F2C4B278A}">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{8E68F913-8DAB-482A-B615-15A1F117EB23}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00B050FC-4356-42BF-8968-193B15AD8ABC}">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
 v0, v1, v2, v3 (순서 무관)
 v0 - Hold, None (Default - None)   (대소문자 무관)
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
+v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
         </r>
       </text>
@@ -5080,8 +5080,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5246,7 +5246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4955FC4C-122D-404F-ADAB-DD26C14C228C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02CF962-1928-4352-B360-617BCB8AA36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
     <sheet name="prologue 1" sheetId="21" r:id="rId2"/>
     <sheet name="prologue 2" sheetId="24" r:id="rId3"/>
-    <sheet name="prologue 3" sheetId="26" r:id="rId4"/>
-    <sheet name="naru iteration" sheetId="42" r:id="rId5"/>
-    <sheet name="story1 interaction" sheetId="28" r:id="rId6"/>
+    <sheet name="naru iteration" sheetId="42" r:id="rId4"/>
+    <sheet name="story1 interaction" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1926,7 +1925,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D11D9696-1626-4FA1-989A-2DEDAE2F40B6}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A2998FF-3160-4987-894A-9B387EB644D0}">
       <text>
         <r>
           <rPr>
@@ -2131,7 +2130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FA34427C-159A-4CE8-8C1E-201302D6D894}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C381F002-8D0C-45FC-A69C-1590362A4DEE}">
       <text>
         <r>
           <rPr>
@@ -2154,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{240FE18A-38BF-48C0-B531-C5F7B3968F73}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F34C390-C0D1-4FAC-8898-A0E781E0048C}">
       <text>
         <r>
           <rPr>
@@ -2267,7 +2266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7DE9A465-774E-478B-B029-41E5D2FFBD6C}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6B5210AD-76D1-4D1E-884E-EFEB0BA4197C}">
       <text>
         <r>
           <rPr>
@@ -2553,7 +2552,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A2998FF-3160-4987-894A-9B387EB644D0}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{65047D2A-113E-47D5-88B5-D93760949339}">
       <text>
         <r>
           <rPr>
@@ -2758,7 +2757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C381F002-8D0C-45FC-A69C-1590362A4DEE}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EAC96702-E8B5-48C0-A46E-59AEC199021C}">
       <text>
         <r>
           <rPr>
@@ -2781,7 +2780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F34C390-C0D1-4FAC-8898-A0E781E0048C}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A53DC36-CDA6-4938-80C8-0CB283FF1961}">
       <text>
         <r>
           <rPr>
@@ -2894,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6B5210AD-76D1-4D1E-884E-EFEB0BA4197C}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9BFEC8A9-8528-4989-9F64-9E707EA5B744}">
       <text>
         <r>
           <rPr>
@@ -3173,635 +3172,8 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>UISU</author>
-    <author>서 의수</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{65047D2A-113E-47D5-88B5-D93760949339}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">0: NONE
-1: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대화
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (1, 2, 3)
-3: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">종료
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맵</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동할</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Scene </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - contents)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EAC96702-E8B5-48C0-A46E-59AEC199021C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A53DC36-CDA6-4938-80C8-0CB283FF1961}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Default = -1
-Keep = 0 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이전</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>), (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기본</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-Action1 = 1
-…
-Option</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Left or Right </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9BFEC8A9-8528-4989-9F64-9E707EA5B744}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이미</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> 사용하고 있는 구분자
-:, ()</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">- </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>획득</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>수거</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모든</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>타입에서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>여러개</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1 (Script)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">0: 스킵 불가능
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Malgun Gothic"/>
-            <family val="2"/>
-            <charset val="129"/>
-          </rPr>
-          <t>1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="145">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3885,10 +3257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3921,10 +3289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	(메인 필드)&gt; (#1 백색공간 스크립트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3968,18 +3332,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이런…. 설마하니 하늘에서 사람들이 종종 떨어지는 공간이 일반적이라고 생각하는 건 아니지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한번 언급했던 것처럼 우리는 너희를 ‘길을 잃은 사람들’이라고 불러.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…무슨 소리를 하는지 잘 모르겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보여.</t>
   </si>
   <si>
@@ -4010,24 +3366,12 @@
     <t>만일 네가 강아지의 입장이었다면 앞에 놓인 근사한 밥상을 먹을 거야?</t>
   </si>
   <si>
-    <t>….</t>
-  </si>
-  <si>
     <t>먹을게.</t>
   </si>
   <si>
     <t>소감은?</t>
   </si>
   <si>
-    <t>…?</t>
-  </si>
-  <si>
-    <t>…이봐, 이렇게 감흥 없이 굴 거야? 그것들이 네가 찾고 있던 것이라고.</t>
-  </si>
-  <si>
-    <t>…내가 이걸 왜 찾아야 하는지 모르겠어.</t>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (메인 필드)</t>
   </si>
   <si>
@@ -4043,30 +3387,7 @@
     <t>(메인 필드) : 나루인형(으로 추정되는) 아이템을 클로즈업한 그림이 뜬다.</t>
   </si>
   <si>
-    <t>(…스스로를 본 딴 인형으로 추정된다.)</t>
-  </si>
-  <si>
-    <t>…너는 누구야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 나루야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">…나는 그저 길잡이일 뿐이야. 모든 해답은 네 스스로 찾을 수 있겠지. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…정말 이야기를 듣고 싶어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…좋아, 내 행동이 옳았다는 것을 너도 알 수 있을 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 최선을 다 했어….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4123,88 +3444,6 @@
   </si>
   <si>
     <r>
-      <t>괜찮아, 염려할 필요는 없어. 대게 존재들은 스스로 돌아갈 길을 알고 있거든.
-그래. 예를 들자면 그들 중 대다수가 향했던 곳이 
-&lt;b&gt;'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(엔딩 필드 이름)’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이었다던가.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘(엔딩 필드 이름)’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>….</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>&lt;b&gt;</t>
     </r>
     <r>
@@ -4244,45 +3483,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그렇지만…. 만약 네가 이곳에서 찾고 싶은 것이 있다고 한다면,
-이것이 너에게 도움이 될 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…이런! 내 정신 좀 봐.
-시시한 이야기는 제쳐 두고 목걸이를 어떻게 쓰는지 알려 줄게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너무 깊게 생각할 필요는 없어.
 지금은 일단 네가 마음 가는 대로 하도록 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐… 그렇다고 ‘오래 머문 사람은 절대 다시 떨어지지 않았다’는 뜻은 아니야.
-인생이란 원래 변화무쌍한 법이니, 하늘에서 떨어지는 미아가 되는 일쯤 흔하지. 
-선택은 온전히 네 몫이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 그렇게 떠나갔던 다수는 근시일 내 다시금 이 곳 하늘에서 떨어지곤 했어.
-그러한 사실은 전혀 기억하지 못했고.
-…너도 이 정체 모를 공간에 다시 머리부터 떨어지고 싶은 마음은 없잖아?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘길을 잃은 사람들’은 재량껏 이 곳을 머물다 떠나갈 수 있지.
-…물론 이 어색하고 따분한 공간을 좋아하는 사람들은 몇 없었기는 해도.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…재수가 없는 날에는 머리로 떨어지는 일도 있을 수 있지.
-머피가 좋아할 그런 날들 말이야. 크게 문제될 것은 아니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것들은 또한 감정을 가리지 않지. 하지만 겁먹을 필요는 없어. 
-네가 만일 이곳에 조금 더 머무르길 결정했다고 하더라도… 할 일은 어렵지 않거든.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4334,48 +3536,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>…그저 네가 원하는 만큼</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;b&gt;‘기억’들의 이야기를 들어주면 돼.&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 간단하지?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음… 그래! 말로만 설명하기 보다는 예시를 보여주는 편이 네게도 좋겠지?
-자, 일단 내 손을 잡아봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>네가 보는 것은 ‘기억’의 일부야. 직접적인 영향은 줄 수 없지.
 그것들은 이미 과거에 일어난 확정된 이야기들이거든.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…너는 ‘기억’들의 이야기가 진행되는 동안 이야기의 중요한 기로속에서 몇 가지 선택을 하게  될 거야.
-선택으로 이미 확정된 이야기가 좌지우지되는 일도 없으니 부담 가질 필요도 없겠지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물론 그렇다고 해서 이 일련의 행위가 전혀 의미가 없지는 않아.
 그랬듯이 네 선택은 곧 네 일부가 될 테니까.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4386,18 +3551,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…너무 그렇게 보지 마. 이건 어디까지나 예시라고! 
-가련한 강아지에게는 이 한끼가 인생의 중요한 기로일 수 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아. 그게 네 선택이구나. 네 선택과는 별개로 이야기 속 강아지는 밥을 먹었어. 
 그리고 그 과정속에서 네가 얻게 될 것은, 이것이지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘기억’의 이야기를 온전히 들어주게 되면, ‘기억’은 감사함의 표시로 보답을 줄 거야. 
-나도 비록 열쇠는 회수해 갈 수밖에 없었지만, 이 것만큼은 건네어 줄 수 있지!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4509,11 +3664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>…자! 내가 설명할 것은 여기 까지야.
-이 이후로는 네 발걸음이 닿는 대로 움직이도록 해. 혹시 궁금한 점 있어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭막한 놈! 알아. 내 정체를 묻는 거지? 
 이런 연고도 없는 곳에 떨어졌으니 나를 경계하는 것도 이해가 되지 않는 것은 아니지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4536,57 +3686,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.
-그 이후의 일은 동일하지. 원하다면 다른 ‘기억’들의 이야기를 더 들을 수도 있고, 돌아갈 수도 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prologue 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prologue 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prologue 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>story1 interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naru iteration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>....</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!</t>
-  </si>
-  <si>
     <t>Left, Appear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SmallRoomScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4611,6 +3718,322 @@
   </si>
   <si>
     <t>Hold, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right, Appear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···.</t>
+  </si>
+  <si>
+    <t>···.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘(엔딩 필드 이름)’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지만···. 만약 네가 이곳에서 찾고 싶은 것이 있다고 한다면,
+이것이 너에게 도움이 될 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런···. 설마하니 하늘에서 사람들이 종종 떨어지는 공간이 일반적이라고 생각하는 건 아니지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···?</t>
+  </si>
+  <si>
+    <t>···?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···재수가 없는 날에는 머리로 떨어지는 일도 있을 수 있지.
+머피가 좋아할 그런 날들 말이야. 크게 문제될 것은 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘길을 잃은 사람들’은 재량껏 이 곳을 머물다 떠나갈 수 있지.
+···물론 이 어색하고 따분한 공간을 좋아하는 사람들은 몇 없었기는 해도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 떠나갔던 다수는 근시일 내 다시금 이 곳 하늘에서 떨어지곤 했어.
+그러한 사실은 전혀 기억하지 못했고.
+···너도 이 정체 모를 공간에 다시 머리부터 떨어지고 싶은 마음은 없잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···무슨 소리를 하는지 잘 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···이런! 내 정신 좀 봐.
+시시한 이야기는 제쳐 두고 목걸이를 어떻게 쓰는지 알려 줄게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>···그저 네가 원하는 만큼</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;b&gt;‘기억’들의 이야기를 들어주면 돼.&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 간단하지?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음··· 그래! 말로만 설명하기 보다는 예시를 보여주는 편이 네게도 좋겠지?
+자, 일단 내 손을 잡아봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···너무 그렇게 보지 마. 이건 어디까지나 예시라고! 
+가련한 강아지에게는 이 한끼가 인생의 중요한 기로일 수 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···이봐, 이렇게 감흥 없이 굴 거야? 그것들이 네가 찾고 있던 것이라고.</t>
+  </si>
+  <si>
+    <t>···이봐, 이렇게 감흥 없이 굴 거야? 그것들이 네가 찾고 있던 것이라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···내가 이걸 왜 찾아야 하는지 모르겠어.</t>
+  </si>
+  <si>
+    <t>···내가 이걸 왜 찾아야 하는지 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것들은 또한 감정을 가리지 않지. 하지만 겁먹을 필요는 없어. 
+네가 만일 이곳에 조금 더 머무르길 결정했다고 하더라도··· 할 일은 어렵지 않거든.</t>
+  </si>
+  <si>
+    <t>(···스스로를 본 딴 인형으로 추정된다.)</t>
+  </si>
+  <si>
+    <t>···자! 내가 설명할 것은 여기 까지야.
+이 이후로는 네 발걸음이 닿는 대로 움직이도록 해. 혹시 궁금한 점 있어?</t>
+  </si>
+  <si>
+    <t>···너는 누구야?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">···나는 그저 길잡이일 뿐이야. 모든 해답은 네 스스로 찾을 수 있겠지. </t>
+  </si>
+  <si>
+    <t>···!</t>
+  </si>
+  <si>
+    <t>···정말 이야기를 듣고 싶어?</t>
+  </si>
+  <si>
+    <t>···좋아, 내 행동이 옳았다는 것을 너도 알 수 있을 거야.</t>
+  </si>
+  <si>
+    <t>나는 최선을 다 했어···.</t>
+  </si>
+  <si>
+    <t>(메인 필드)&gt; (컷 씬 전환): 사진사가 의자에 앉아 고개를 숙이고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 카메라 시점, 사진사가 손으로 머리를 짚으며 괴로워하는 기색을 보인다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 손으로 머리를 헝클린다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)를 발견한다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 화난 기색을 보이는 사진사</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)으로 다가온다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 사진사가 카메라(화면)에 근접하고 사진사에 의해 화면이 휘둘린다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 격하게 휘둘린다.</t>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)은 쓰러지며 흐릿하게 누군가에게 화를 내고 있는 사진사.</t>
+  </si>
+  <si>
+    <t>···사, ···지··· 말라고···!!</t>
+  </si>
+  <si>
+    <t>그, ···적 없ㅇ···!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1, prologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-2, prologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage1 - Photographer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-naru iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐··· 그렇다고 ‘오래 머문 사람은 절대 다시 떨어지지 않았다’는 뜻은 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생이란 원래 변화무쌍한 법이니, 하늘에서 떨어지는 미아가 되는 일쯤 흔하지. 
+선택은 온전히 네 몫이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아, 염려할 필요는 없어. 대게 존재들은 스스로 돌아갈 길을 알고 있거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>그래. 예를 들자면 그들 중 대다수가 향했던 곳이 
+&lt;b&gt;'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(엔딩 필드 이름)’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이었다던가.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···너는 ‘기억’들의 이야기가 진행되는 동안 이야기의 중요한 기로속에서 몇 가지 선택을 하게  될 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택으로 이미 확정된 이야기가 좌지우지되는 일도 없으니 부담 가질 필요도 없겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 이후의 일은 동일하지. 원하다면 다른 ‘기억’들의 이야기를 더 들을 수도 있고, 돌아갈 수도 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼. ‘기억’들의 이야기가 끝이 나면, 너는 다시 허수공간에 도착하게 될 거야.</t>
+  </si>
+  <si>
+    <t>나도 비록 열쇠는 회수해 갈 수밖에 없었지만, 이 것만큼은 건네어 줄 수 있지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘기억’의 이야기를 온전히 들어주게 되면, ‘기억’은 감사함의 표시로 보답을 줄 거야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4705,7 +4128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4715,6 +4138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4733,7 +4162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4759,6 +4188,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5080,15 +4515,15 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5151,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5176,15 +4611,15 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5209,10 +4644,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5226,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5244,10 +4679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5262,7 +4697,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5328,10 +4763,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5345,10 +4780,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5357,15 +4792,15 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5376,10 +4811,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5389,11 +4824,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -5409,10 +4841,10 @@
     </row>
     <row r="11" spans="1:16" ht="49.5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5423,24 +4855,18 @@
     </row>
     <row r="12" spans="1:16" ht="115.5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -5456,10 +4882,10 @@
     </row>
     <row r="15" spans="1:16" ht="49.5">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5468,54 +4894,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="115.5">
+    <row r="16" spans="1:16" ht="49.5">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:6" ht="66">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="33">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="49.5">
+    <row r="19" spans="1:6" ht="33">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5524,152 +4944,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6">
+    <row r="20" spans="1:6" ht="49.5">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6">
         <v>6</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="33">
-      <c r="A21" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="C25">
+    <row r="26" spans="1:6">
+      <c r="C26">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="66">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+    <row r="27" spans="1:6" ht="66">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="66">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="66">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="49.5">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="82.5">
+    <row r="31" spans="1:6" ht="49.5">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5678,121 +5082,136 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="132">
+    <row r="32" spans="1:6" ht="82.5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
+    </row>
+    <row r="33" spans="1:6" ht="132">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="49.5">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="115.5">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="33">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="49.5">
+    <row r="36" spans="1:6" ht="66">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:6" ht="33">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6" ht="49.5">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="D38">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="C39">
+    <row r="41" spans="1:6">
+      <c r="C41">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="66">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+    <row r="42" spans="1:6" ht="66">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5804,10 +5223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5822,7 +5241,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5889,7 +5308,7 @@
     <row r="5" spans="1:16" ht="33">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>6</v>
@@ -5897,249 +5316,240 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="33">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="6" spans="1:16">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="33">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="82.5">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>81</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="49.5">
+    <row r="8" spans="1:16" ht="82.5">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="66">
+    <row r="9" spans="1:16" ht="49.5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="66">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="5"/>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="49.5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" ht="66">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="5"/>
-      <c r="C11">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="5"/>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="49.5">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="66">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="5"/>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" ht="51.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="5"/>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="6">
         <v>6</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="33">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="6">
         <v>6</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
         <v>3</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="66">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="115.5">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="66">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="33">
+    <row r="25" spans="1:8" ht="66">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -6147,155 +5557,180 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="49.5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="66">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="33">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="5"/>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="49.5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="6">
         <v>6</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="49.5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="66">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="82.5">
+    <row r="32" spans="1:8" ht="49.5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="33">
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="66">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C34">
         <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="49.5">
+    <row r="36" spans="1:8" ht="82.5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="33">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="82.5">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6304,157 +5739,173 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="49.5">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="33">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="82.5">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="5"/>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="49.5">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="49.5">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" ht="33">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="6">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="99">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="49.5">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" ht="33">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44">
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="82.5">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="33">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="49.5">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="33">
+    <row r="50" spans="1:8" ht="82.5">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="82.5">
+    <row r="51" spans="1:8" ht="33">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -6463,10 +5914,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -6474,122 +5925,141 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="6"/>
-      <c r="B53" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" ht="49.5">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" ht="33">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" ht="82.5">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="5"/>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6">
         <v>6</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="99">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="49.5">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="33">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
         <v>3</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="33">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="99">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>88</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" ht="49.5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="6">
-        <v>6</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>108</v>
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="49.5">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6598,34 +6068,267 @@
     </row>
     <row r="63" spans="1:8" ht="33">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="33">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="6">
+    <row r="64" spans="1:8">
+      <c r="B64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="49.5">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" ht="49.5">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" ht="49.5">
+      <c r="A69" s="6"/>
+      <c r="B69" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="6">
         <v>6</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="6"/>
+      <c r="B72" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" ht="82.5">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="82.5">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="33">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6635,12 +6338,209 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D80C0E-6C2C-4983-9442-683187F41940}">
-  <dimension ref="A1:P63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
+  <dimension ref="A1:P62"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
@@ -6654,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -6718,157 +6618,292 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="82.5">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="82.5">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="49.5">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="49.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="49.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="33">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="33">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="33">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="49.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="33">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="49.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33">
+      <c r="B21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:6">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:6">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:6">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:6">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2">
@@ -6931,8 +6966,8 @@
     <row r="52" spans="2:2">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2"/>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2"/>
@@ -6940,533 +6975,14 @@
     <row r="57" spans="2:2">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2"/>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
-  <dimension ref="A1:P61"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="33">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02CF962-1928-4352-B360-617BCB8AA36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5907C6-A5B5-46FB-8E4A-6FED949333A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
     <sheet name="prologue 1" sheetId="21" r:id="rId2"/>
     <sheet name="prologue 2" sheetId="24" r:id="rId3"/>
-    <sheet name="naru iteration" sheetId="42" r:id="rId4"/>
-    <sheet name="story1 interaction" sheetId="28" r:id="rId5"/>
+    <sheet name="prologue 3" sheetId="43" r:id="rId4"/>
+    <sheet name="naru iteration" sheetId="42" r:id="rId5"/>
+    <sheet name="story1 interaction" sheetId="28" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1925,7 +1926,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A2998FF-3160-4987-894A-9B387EB644D0}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{424D4805-681F-445C-97E2-6338372BF595}">
       <text>
         <r>
           <rPr>
@@ -2130,7 +2131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C381F002-8D0C-45FC-A69C-1590362A4DEE}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5B22F5DC-3839-4307-9FB0-FC9D8FBAEB89}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F34C390-C0D1-4FAC-8898-A0E781E0048C}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{66A8C426-6350-4323-B6F0-42896199BB89}">
       <text>
         <r>
           <rPr>
@@ -2266,7 +2267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6B5210AD-76D1-4D1E-884E-EFEB0BA4197C}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{54330E0A-94D5-4A66-8283-8FA9793D13CA}">
       <text>
         <r>
           <rPr>
@@ -2552,7 +2553,7 @@
     <author>서 의수</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{65047D2A-113E-47D5-88B5-D93760949339}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0A2998FF-3160-4987-894A-9B387EB644D0}">
       <text>
         <r>
           <rPr>
@@ -2757,7 +2758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EAC96702-E8B5-48C0-A46E-59AEC199021C}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C381F002-8D0C-45FC-A69C-1590362A4DEE}">
       <text>
         <r>
           <rPr>
@@ -2780,7 +2781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A53DC36-CDA6-4938-80C8-0CB283FF1961}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9F34C390-C0D1-4FAC-8898-A0E781E0048C}">
       <text>
         <r>
           <rPr>
@@ -2893,7 +2894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9BFEC8A9-8528-4989-9F64-9E707EA5B744}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{6B5210AD-76D1-4D1E-884E-EFEB0BA4197C}">
       <text>
         <r>
           <rPr>
@@ -3172,8 +3173,635 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>UISU</author>
+    <author>서 의수</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{65047D2A-113E-47D5-88B5-D93760949339}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+1: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대화
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">종료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Scene </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{EAC96702-E8B5-48C0-A46E-59AEC199021C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A53DC36-CDA6-4938-80C8-0CB283FF1961}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Default = -1
+Keep = 0 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>), (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+Action1 = 1
+…
+Option</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Left or Right </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9BFEC8A9-8528-4989-9F64-9E707EA5B744}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> 사용하고 있는 구분자
+:, ()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>. 단, 일부 (Random 혹은 Choice 관련 안됨.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">0: 스킵 불가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Malgun Gothic"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>1(value) : {$value}배속
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
+v0, v1 (순서 무관)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- 컷씬
+v0, v1, v2, v3 (순서 무관)
+v0 - Hold, None (Default - None)   (대소문자 무관)
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="160">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3713,18 +4341,6 @@
     <t>(컷 씬)&gt; (컷 씬 전환): 주인공은 나루와 손을 잡고 주인공의 목걸이에서는 기묘한 빛이 난다.</t>
   </si>
   <si>
-    <t>Hold, 1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Right, Appear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3937,10 +4553,6 @@
   </si>
   <si>
     <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold, -1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4034,6 +4646,76 @@
   </si>
   <si>
     <t>‘기억’의 이야기를 온전히 들어주게 되면, ‘기억’은 감사함의 표시로 보답을 줄 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3, prologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Main/Prologue/#0-1 Get Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Main/Prologue/#1-1 허수공간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Prologue/#1-3 가정집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Prologue/#1-4 강아지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Main/Prologue/#2-1 Get Naru Doll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Prologue/#1-2 나루 주인공 목걸이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Main/Stage1/#1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-4</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-5</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-6</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-7</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-8</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage1/#1-9</t>
+  </si>
+  <si>
+    <t>Hold, -1, name=Main/Stage1/#1-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Main/Prologue/#0-2 Remove Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.1, name=Main/Prologue/#2-2 Remove Naru Doll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4128,7 +4810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4147,13 +4829,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4162,7 +4883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4172,28 +4893,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4681,23 +5429,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -4762,455 +5509,560 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="49.5">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="99">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="49.5">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="33">
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="49.5">
+      <c r="A17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="33">
+      <c r="A19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="49.5">
+      <c r="A20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="33">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33">
+      <c r="A22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="33">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="49.5">
+      <c r="A27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="66">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="33">
+      <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="66">
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="82.5">
+      <c r="A33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="33">
+      <c r="A35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1</v>
+      </c>
+      <c r="D35" s="14">
+        <v>3</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="49.5">
+      <c r="A36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="49.5">
+      <c r="A38" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="49.5">
-      <c r="A11" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="14">
+        <v>2</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14">
+        <v>3</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="49.5">
+      <c r="A42" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="115.5">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
+      <c r="B42" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="49.5">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="49.5">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="66">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="49.5">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="33">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="66">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="66">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="49.5">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="82.5">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="132">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="49.5">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="66">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="33">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="49.5">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="66">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="C43">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14">
         <v>11</v>
       </c>
-      <c r="F43" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5223,10 +6075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5241,7 +6093,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5306,1029 +6158,903 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="33">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="33">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="82.5">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="49.5">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="66">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="49.5">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="66">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="33">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="66">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="66">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="49.5">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="66">
+      <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="33">
+      <c r="A27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="B29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="49.5">
+      <c r="A30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="66">
+      <c r="A32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="10">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="33">
-      <c r="A7" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="82.5">
+      <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="B34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="33">
+      <c r="A35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="49.5">
+      <c r="A38" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="33">
+      <c r="A39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="82.5">
+      <c r="A40" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="10">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="49.5">
+      <c r="A43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="82.5">
-      <c r="A8" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="49.5">
+      <c r="A44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="49.5">
-      <c r="A9" t="s">
+      <c r="B44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="33">
+      <c r="A45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="82.5">
+      <c r="A47" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="33">
+      <c r="A48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="49.5">
+      <c r="A51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="66">
-      <c r="A10" t="s">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" ht="33">
+      <c r="A52" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="82.5">
+      <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
+      <c r="B53" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
         <v>2</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="5"/>
-      <c r="C12">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="12">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" ht="49.5">
+      <c r="A56" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
         <v>3</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="49.5">
-      <c r="A13" t="s">
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="49.5">
+      <c r="A57" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" ht="66">
-      <c r="A14" t="s">
+      <c r="B57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" ht="49.5">
+      <c r="A58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="5"/>
-      <c r="C16">
+      <c r="B58" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" ht="33">
+      <c r="A59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="9">
         <v>3</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="5"/>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="66">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="66">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="66">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="33">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="5"/>
-      <c r="C29">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="49.5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="49.5">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="66">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="82.5">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="33">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="49.5">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="82.5">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="5"/>
-      <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="6">
-        <v>6</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" ht="49.5">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" ht="33">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="82.5">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" ht="33">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="49.5">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="33">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="82.5">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="5"/>
-      <c r="C58">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="6">
-        <v>6</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="49.5">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="49.5">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="33">
-      <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="5"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="5"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="5"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="B64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="33">
-      <c r="A66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="49.5">
-      <c r="A67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="49.5">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="49.5">
-      <c r="A69" s="6"/>
-      <c r="B69" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="6">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="33">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="6"/>
-      <c r="B72" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="6">
-        <v>6</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="82.5">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="82.5">
-      <c r="A79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="33">
-      <c r="A80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="C82">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>78</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="5"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6338,6 +7064,369 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17942C2D-E350-4175-91DA-E8D32862B86D}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="33">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="33">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="33">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="33">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="49.5">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="49.5">
+      <c r="A19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="33">
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17">
+        <v>11</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -6349,7 +7438,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6417,7 +7506,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6429,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6437,7 +7526,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6498,7 +7587,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6512,7 +7601,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6536,25 +7625,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -6623,7 +7713,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6632,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6643,12 +7733,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="33">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6663,10 +7753,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="49.5">
+    <row r="9" spans="1:16">
       <c r="A9" s="2"/>
-      <c r="B9" s="9" t="s">
-        <v>118</v>
+      <c r="B9" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -6674,13 +7764,13 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="49.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
-      <c r="B10" s="9" t="s">
-        <v>119</v>
+      <c r="B10" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -6688,13 +7778,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="33">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2"/>
-      <c r="B11" s="9" t="s">
-        <v>120</v>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -6702,13 +7792,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2"/>
-      <c r="B12" s="9" t="s">
-        <v>121</v>
+      <c r="B12" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -6716,13 +7806,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="33">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2"/>
-      <c r="B13" s="9" t="s">
-        <v>122</v>
+      <c r="B13" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -6730,13 +7820,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="33">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
-        <v>123</v>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -6744,13 +7834,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="49.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2"/>
-      <c r="B15" s="9" t="s">
-        <v>124</v>
+      <c r="B15" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -6758,13 +7848,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="33">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2"/>
-      <c r="B16" s="9" t="s">
-        <v>125</v>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
@@ -6772,13 +7862,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2"/>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
+      <c r="B17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -6786,7 +7876,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6794,7 +7884,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6812,7 +7902,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6835,15 +7925,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33">
-      <c r="B21" s="9" t="s">
-        <v>129</v>
+    <row r="21" spans="1:6">
+      <c r="B21" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6867,7 +7957,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5907C6-A5B5-46FB-8E4A-6FED949333A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BE8F7-563F-4F3C-9723-CB9B00F469E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="160">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3872,9 +3872,6 @@
   <si>
     <t>enum:Expression:Keep</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공</t>
   </si>
   <si>
     <t>주인공</t>
@@ -4026,48 +4023,6 @@
   <si>
     <t>모두들 그렇게 이야기하더라. 기억이 온전치 않은데도.
 참 이상한 일이지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>그다지 특별한 일은 아니지. 오히려 종종 있던 일 이라고 할까?
-물론, 완전히 기억이 없는 경우는 흔하지 않지만.
-우리는 그들을 &lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘길을 잃은 사람들’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이라고 불러.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4716,6 +4671,51 @@
   </si>
   <si>
     <t>Hold, 0.1, name=Main/Prologue/#2-2 Remove Naru Doll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그다지 특별한 일은 아니지. 오히려 종종 있던 일 이라고 할까?
+물론, 완전히 기억이 없는 경우는 흔하지 않지만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>우리는 그들을 &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘길을 잃은 사람들’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이라고 불러.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4926,15 +4926,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4942,6 +4933,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5271,7 +5271,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5334,15 +5334,15 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5359,15 +5359,15 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5406,10 +5406,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5427,10 +5427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5444,7 +5444,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5509,561 +5509,575 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" ht="49.5">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" ht="66">
+      <c r="A12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" ht="33">
+      <c r="A13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" ht="49.5">
+      <c r="A16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="33">
+      <c r="A17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.5">
+      <c r="A18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="33">
+      <c r="A20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="49.5">
+      <c r="A21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="33">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="17">
+        <v>6</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33">
+      <c r="A23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="33">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17">
+        <v>6</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="14" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="49.5">
+      <c r="A28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="66">
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="33">
+      <c r="A32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="66">
+      <c r="A33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="82.5">
+      <c r="A34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" ht="33">
+      <c r="A36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="17">
+        <v>3</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="49.5">
+      <c r="A37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" ht="49.5">
+      <c r="A39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
         <v>3</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" ht="49.5">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="17">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="17">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" ht="99">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" ht="49.5">
+      <c r="A43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17">
         <v>2</v>
       </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="49.5">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>3</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" ht="33">
-      <c r="A16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="49.5">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="33">
-      <c r="A19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="49.5">
-      <c r="A20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="33">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="14">
-        <v>6</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="33">
-      <c r="A22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="33">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14">
-        <v>3</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="49.5">
-      <c r="A27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="14">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="66">
-      <c r="A29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="14">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14">
-        <v>3</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="33">
-      <c r="A31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" ht="66">
-      <c r="A32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="82.5">
-      <c r="A33" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="14">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="14">
-        <v>1</v>
-      </c>
-      <c r="D34" s="14">
-        <v>2</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="33">
-      <c r="A35" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1</v>
-      </c>
-      <c r="D35" s="14">
-        <v>3</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="49.5">
-      <c r="A36" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="14">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="14">
-        <v>1</v>
-      </c>
-      <c r="D37" s="14">
-        <v>2</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="49.5">
-      <c r="A38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="14">
-        <v>1</v>
-      </c>
-      <c r="D38" s="14">
-        <v>3</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="14">
-        <v>2</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="14">
-        <v>2</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14">
-        <v>3</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6" ht="49.5">
-      <c r="A42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14">
-        <v>2</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17">
         <v>11</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
-        <v>78</v>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6077,7 +6091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CC2C1E-6D25-4DF6-8735-FDEFE9F7599E}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6093,7 +6107,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -6160,7 +6174,7 @@
     <row r="5" spans="1:16" ht="33">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -6168,7 +6182,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -6187,10 +6201,10 @@
     </row>
     <row r="7" spans="1:16" ht="33">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -6204,10 +6218,10 @@
     </row>
     <row r="8" spans="1:16" ht="82.5">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -6219,10 +6233,10 @@
     </row>
     <row r="9" spans="1:16" ht="49.5">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -6234,10 +6248,10 @@
     </row>
     <row r="10" spans="1:16" ht="66">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -6250,7 +6264,7 @@
     <row r="11" spans="1:16">
       <c r="A11" s="9"/>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -6273,10 +6287,10 @@
     </row>
     <row r="13" spans="1:16" ht="49.5">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -6288,10 +6302,10 @@
     </row>
     <row r="14" spans="1:16" ht="66">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -6304,7 +6318,7 @@
     <row r="15" spans="1:16">
       <c r="A15" s="9"/>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -6328,7 +6342,7 @@
     <row r="17" spans="1:8" ht="51.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
@@ -6336,14 +6350,14 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="33">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -6351,16 +6365,16 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -6375,7 +6389,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="9"/>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
@@ -6388,7 +6402,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="9"/>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
@@ -6401,7 +6415,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="9"/>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9">
         <v>3</v>
@@ -6413,10 +6427,10 @@
     </row>
     <row r="23" spans="1:8" ht="66">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -6430,10 +6444,10 @@
     </row>
     <row r="24" spans="1:8" ht="66">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -6445,10 +6459,10 @@
     </row>
     <row r="25" spans="1:8" ht="49.5">
       <c r="A25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -6460,10 +6474,10 @@
     </row>
     <row r="26" spans="1:8" ht="66">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
@@ -6475,10 +6489,10 @@
     </row>
     <row r="27" spans="1:8" ht="33">
       <c r="A27" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
@@ -6491,7 +6505,7 @@
     <row r="28" spans="1:8" ht="49.5">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="7">
         <v>6</v>
@@ -6499,16 +6513,16 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -6520,10 +6534,10 @@
     </row>
     <row r="30" spans="1:8" ht="49.5">
       <c r="A30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -6535,10 +6549,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6550,10 +6564,10 @@
     </row>
     <row r="32" spans="1:8" ht="66">
       <c r="A32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -6565,10 +6579,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -6580,10 +6594,10 @@
     </row>
     <row r="34" spans="1:8" ht="82.5">
       <c r="A34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="10">
         <v>1</v>
@@ -6595,10 +6609,10 @@
     </row>
     <row r="35" spans="1:8" ht="33">
       <c r="A35" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
@@ -6610,10 +6624,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -6625,10 +6639,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
@@ -6640,10 +6654,10 @@
     </row>
     <row r="38" spans="1:8" ht="49.5">
       <c r="A38" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -6655,10 +6669,10 @@
     </row>
     <row r="39" spans="1:8" ht="33">
       <c r="A39" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10">
         <v>1</v>
@@ -6670,10 +6684,10 @@
     </row>
     <row r="40" spans="1:8" ht="82.5">
       <c r="A40" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
@@ -6685,10 +6699,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
@@ -6701,7 +6715,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="10">
         <v>6</v>
@@ -6709,16 +6723,16 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="49.5">
       <c r="A43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -6728,16 +6742,16 @@
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="49.5">
       <c r="A44" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
@@ -6749,10 +6763,10 @@
     </row>
     <row r="45" spans="1:8" ht="33">
       <c r="A45" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -6765,7 +6779,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="12"/>
       <c r="B46" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="12">
         <v>2</v>
@@ -6777,10 +6791,10 @@
     </row>
     <row r="47" spans="1:8" ht="82.5">
       <c r="A47" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -6792,10 +6806,10 @@
     </row>
     <row r="48" spans="1:8" ht="33">
       <c r="A48" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -6807,10 +6821,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -6822,10 +6836,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -6839,10 +6853,10 @@
     </row>
     <row r="51" spans="1:8" ht="49.5">
       <c r="A51" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -6856,10 +6870,10 @@
     </row>
     <row r="52" spans="1:8" ht="33">
       <c r="A52" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -6873,10 +6887,10 @@
     </row>
     <row r="53" spans="1:8" ht="82.5">
       <c r="A53" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
@@ -6890,10 +6904,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -6908,7 +6922,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="12"/>
       <c r="B55" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="12">
         <v>6</v>
@@ -6916,16 +6930,16 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="49.5">
       <c r="A56" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
@@ -6935,16 +6949,16 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="49.5">
       <c r="A57" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -6956,10 +6970,10 @@
     </row>
     <row r="58" spans="1:8" ht="49.5">
       <c r="A58" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
@@ -6971,10 +6985,10 @@
     </row>
     <row r="59" spans="1:8" ht="33">
       <c r="A59" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -6987,7 +7001,7 @@
     <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="B60" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="9">
         <v>3</v>
@@ -7067,7 +7081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17942C2D-E350-4175-91DA-E8D32862B86D}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -7082,7 +7096,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7146,277 +7160,277 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="A5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
-        <v>79</v>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="33">
+      <c r="A7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="33">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="33">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="33">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="49.5">
+      <c r="A13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="33">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="33">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="33">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="17">
-        <v>6</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="17">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="33">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17">
-        <v>6</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="49.5">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="B17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="49.5">
+      <c r="A19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="33">
+      <c r="A20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
         <v>2</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17">
-        <v>2</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="49.5">
-      <c r="A19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>3</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14">
         <v>11</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
-        <v>78</v>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7430,15 +7444,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7503,10 +7517,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7518,15 +7532,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7535,7 +7549,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7584,10 +7598,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7598,10 +7612,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7615,7 +7629,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7627,10 +7641,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -7644,7 +7658,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -7710,10 +7724,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7722,12 +7736,12 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -7735,10 +7749,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7747,30 +7761,22 @@
     <row r="8" spans="1:16">
       <c r="B8" s="2"/>
       <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>148</v>
+      <c r="F9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -7778,13 +7784,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -7792,13 +7798,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -7806,13 +7812,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -7820,13 +7826,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -7834,13 +7840,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -7848,13 +7854,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
@@ -7862,13 +7868,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -7876,110 +7882,117 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
       <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
+    <row r="24" spans="1:6">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="2"/>
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2"/>
       <c r="C26">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2"/>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2"/>
@@ -8056,8 +8069,8 @@
     <row r="52" spans="2:2">
       <c r="B52" s="2"/>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2"/>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2"/>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2"/>
@@ -8065,14 +8078,17 @@
     <row r="57" spans="2:2">
       <c r="B57" s="2"/>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2"/>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2"/>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BE8F7-563F-4F3C-9723-CB9B00F469E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF741B9F-D80B-41FE-A146-072E5AF77323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -4883,7 +4883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4942,6 +4942,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5429,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7444,7 +7447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C1A1C8-7761-4617-AE8A-857917D828E6}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -7643,8 +7646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -7761,22 +7764,30 @@
     <row r="8" spans="1:16">
       <c r="B8" s="2"/>
       <c r="C8">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="2"/>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -7784,13 +7795,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -7798,13 +7809,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -7812,13 +7823,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -7826,13 +7837,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -7840,13 +7851,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -7854,13 +7865,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
@@ -7868,13 +7879,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -7882,75 +7893,68 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>121</v>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="C21" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="2">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF741B9F-D80B-41FE-A146-072E5AF77323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2AE50D-C90E-423A-B5BA-DAD73178B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="161">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4377,12 +4377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 그렇게 떠나갔던 다수는 근시일 내 다시금 이 곳 하늘에서 떨어지곤 했어.
-그러한 사실은 전혀 기억하지 못했고.
-···너도 이 정체 모를 공간에 다시 머리부터 떨어지고 싶은 마음은 없잖아?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>···무슨 소리를 하는지 잘 모르겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4716,6 +4710,14 @@
       </rPr>
       <t>이라고 불러.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 떠나갔던 다수는 근시일 내 다시금 이 곳 하늘에서 떨어지곤 했어. 그러한 사실은 전혀 기억하지 못했고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>···너도 이 정체 모를 공간에 다시 머리부터 떨어지고 싶은 마음은 없잖아?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4883,7 +4885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4942,9 +4944,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5430,10 +5429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEB96CA-47F2-409F-93DC-A1BA557493B6}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5447,7 +5446,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -5624,7 +5623,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -5638,7 +5637,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="17">
         <v>1</v>
@@ -5692,7 +5691,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -5706,7 +5705,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="17">
         <v>1</v>
@@ -5772,7 +5771,7 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33">
@@ -5800,7 +5799,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5929,12 +5928,12 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" ht="82.5">
+    <row r="34" spans="1:6" ht="49.5">
       <c r="A34" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="C34" s="17">
         <v>1</v>
@@ -5943,100 +5942,102 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="33">
       <c r="A35" s="17" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C35" s="17">
         <v>1</v>
       </c>
-      <c r="D35" s="17">
-        <v>2</v>
-      </c>
+      <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" ht="33">
+    <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
       </c>
       <c r="D36" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" ht="49.5">
+    <row r="37" spans="1:6" ht="33">
       <c r="A37" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="17">
         <v>1</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="17">
+        <v>3</v>
+      </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="49.5">
       <c r="A38" s="17" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C38" s="17">
         <v>1</v>
       </c>
-      <c r="D38" s="17">
-        <v>2</v>
-      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="49.5">
+    <row r="39" spans="1:6">
       <c r="A39" s="17" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C39" s="17">
         <v>1</v>
       </c>
       <c r="D39" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:6" ht="49.5">
+      <c r="A40" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="B40" s="18" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C40" s="17">
-        <v>2</v>
-      </c>
-      <c r="D40" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="17">
+        <v>3</v>
+      </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="17"/>
       <c r="B41" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="17">
         <v>2</v>
@@ -6047,39 +6048,51 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="B42" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="C42" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" ht="49.5">
-      <c r="A43" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>96</v>
-      </c>
+    <row r="43" spans="1:6">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="17">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+    <row r="44" spans="1:6" ht="49.5">
+      <c r="A44" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17">
         <v>11</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6110,7 +6123,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -6185,7 +6198,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -6224,7 +6237,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -6239,7 +6252,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -6308,7 +6321,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -6353,7 +6366,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -6368,7 +6381,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -6450,7 +6463,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -6465,7 +6478,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -6516,7 +6529,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -6570,7 +6583,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -6660,7 +6673,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -6675,7 +6688,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="10">
         <v>1</v>
@@ -6735,7 +6748,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -6754,7 +6767,7 @@
         <v>28</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
@@ -6859,7 +6872,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -6876,7 +6889,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -6942,7 +6955,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
@@ -6961,7 +6974,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -7099,7 +7112,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7201,7 +7214,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -7215,7 +7228,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -7235,7 +7248,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7257,7 +7270,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -7279,7 +7292,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="49.5">
@@ -7287,7 +7300,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
@@ -7303,7 +7316,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
@@ -7399,7 +7412,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -7455,7 +7468,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7604,7 +7617,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7618,7 +7631,7 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7646,8 +7659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496AB02-A604-473C-B397-71873DC77EA1}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -7661,7 +7674,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -7730,7 +7743,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7755,7 +7768,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7773,7 +7786,7 @@
     <row r="9" spans="1:16">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -7781,13 +7794,13 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -7795,13 +7808,13 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -7809,13 +7822,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -7823,13 +7836,13 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -7837,13 +7850,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -7851,13 +7864,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -7865,13 +7878,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
@@ -7879,13 +7892,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -7893,7 +7906,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7901,7 +7914,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7919,7 +7932,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -7940,17 +7953,17 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="B22" s="20"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2">
         <v>5</v>
       </c>
@@ -7977,7 +7990,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649D8C06-896C-46CC-BDC2-0D07D8F40415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="!Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="prologue 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="prologue 2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="prologue 3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="naru iteration" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="story1 interaction" sheetId="6" r:id="rId9"/>
+    <sheet name="!Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="prologue 1" sheetId="2" r:id="rId2"/>
+    <sheet name="prologue 2" sheetId="3" r:id="rId3"/>
+    <sheet name="prologue 3" sheetId="4" r:id="rId4"/>
+    <sheet name="naru iteration" sheetId="5" r:id="rId5"/>
+    <sheet name="story1 interaction" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="q27Jv54fdpFMyai5Q7IqRAldkQQRv0wP7E7m0JwLHq8="/>
@@ -21,69 +30,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXs
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXg
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpW4
-서 의수    (2023-06-15 23:16:56)
-이미 사용하고 있는 구분자
-:, ()
-- 아이템 획득, 수거 (모든 타입에서 가능. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (여러개 가능 - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove
-- 1 (Script)
-0: 스킵 불가능
-1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpW0
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -99,11 +60,1389 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXg
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXs
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">======
+ID#AAAAzX7jpW4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>의수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">    (2023-06-15 23:16:56)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>사용하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">구분자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">:, ()
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Random </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Choice </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>관련</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>안됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>.))
+v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove
+- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>v0, v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>v0 - value</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>스킵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>불가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>외</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>스킵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">가능
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">v1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">(value) : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>텍스트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>속도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">배속
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Script, ImmediatelyExecute</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v0, v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">컷씬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>v0, v1, v2, v3 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v0 - Hold, None (Default - None)   (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>)
+v1 - value : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>스킵이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능해진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">(number)
+v2 - true, false </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Index</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Auto </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>여부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> (Default - true)  (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">)
+v3 - name=value (Resources/Timeline/{$value}) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>폴더에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>불러옴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>넣는다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgus+Kee4Pc9a/pZxuh1/RHIcR2fQ=="/>
     </ext>
   </extLst>
@@ -111,14 +1450,21 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpYE
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -134,23 +1480,19 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXM
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXI
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
@@ -163,11 +1505,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXM
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXA
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -189,11 +1559,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg52Yu9O6MDDHa8kWXZDTxZiOIgfQ=="/>
     </ext>
   </extLst>
@@ -201,14 +1572,94 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXE
+UISU    (2023-06-15 23:16:56)
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXQ
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpWo
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXw
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -230,60 +1681,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXQ
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXE
-UISU    (2023-06-15 23:16:56)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpWo
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgL2DU1HqRV2jR/8lT5D0MykK1Z2Q=="/>
     </ext>
   </extLst>
@@ -291,26 +1694,21 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXk
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXc
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -326,11 +1724,64 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpWs
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXk
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpWw
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -352,28 +1803,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpWs
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj6Xs7lLyOrdQxKWXZOW2QW8Cm9gg=="/>
     </ext>
   </extLst>
@@ -381,14 +1816,21 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpX0
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -404,11 +1846,64 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXU
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXY
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXo
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -430,24 +1925,63 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5NSPqA1VR7X3QvrZ94OlBG4fPrQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXY
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpX4
 UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXU
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpW8
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
     Keep = 0,
@@ -459,26 +1993,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5NSPqA1VR7X3QvrZ94OlBG4fPrQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpX8
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpYA
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -500,60 +2047,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpX8
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpX4
-UISU    (2023-06-15 23:16:56)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpW8
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhUazQFS8XE3lj4jjWRLEabD6oYOg=="/>
     </ext>
   </extLst>
@@ -663,34 +2162,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>우리는 그들을 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>‘길을 잃은 사람들’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>이라고 불러.</t>
     </r>
@@ -707,26 +2214,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>그래. 예를 들자면 그들 중 대다수가 향했던 곳이 &lt;b&gt;'</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>르뤼에 파편연못’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>&lt;/b&gt;이었다던가.</t>
     </r>
@@ -734,26 +2243,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>‘르뤼에 파편연못’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>&lt;/b&gt;···.</t>
     </r>
@@ -777,34 +2288,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>‘정체 불명의 목걸이’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>를 획득하였다.</t>
     </r>
@@ -885,43 +2404,53 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>이곳</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘허수 공간’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>에는 다양한</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘기억’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>들이 존재해.</t>
     </r>
@@ -934,26 +2463,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···그저 네가 원하는 만큼</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘기억’들의 이야기를 들어주면 돼.&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> 간단하지?</t>
     </r>
@@ -1043,26 +2574,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;만족&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1096,26 +2633,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;&lt;만족&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 회수당했다!</t>
     </r>
@@ -1126,26 +2669,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;인내&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1156,26 +2705,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;&lt;인내&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>를 회수당했다!</t>
     </r>
@@ -1333,29 +2888,80 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1363,7 +2969,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1403,7 +3009,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1417,124 +3029,93 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1724,31 +3305,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="37.71"/>
-    <col customWidth="1" min="3" max="26" width="8.86"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +3353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +3373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +3396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1819,24 +3404,24 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1844,13 +3429,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1858,13 +3443,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,13 +3457,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,18 +3471,18 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -2883,39 +4468,36 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="77.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="48.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +4537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2975,7 +4557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2983,17 +4565,17 @@
         <v>29</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -3001,17 +4583,17 @@
         <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -3019,15 +4601,15 @@
         <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3035,39 +4617,39 @@
         <v>25</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3075,15 +4657,15 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -3091,13 +4673,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3105,97 +4687,97 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -3203,15 +4785,15 @@
         <v>38</v>
       </c>
       <c r="C20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3219,19 +4801,19 @@
         <v>39</v>
       </c>
       <c r="C21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3239,7 +4821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3247,19 +4829,19 @@
         <v>43</v>
       </c>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3267,55 +4849,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3323,15 +4905,15 @@
         <v>49</v>
       </c>
       <c r="C29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -3339,15 +4921,15 @@
         <v>50</v>
       </c>
       <c r="C30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -3355,15 +4937,15 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -3371,15 +4953,15 @@
         <v>51</v>
       </c>
       <c r="C32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -3387,27 +4969,27 @@
         <v>52</v>
       </c>
       <c r="C33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -3415,13 +4997,13 @@
         <v>54</v>
       </c>
       <c r="C35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -3429,45 +5011,45 @@
         <v>29</v>
       </c>
       <c r="C36" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" ht="16.5" customHeight="1">
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -3475,15 +5057,15 @@
         <v>57</v>
       </c>
       <c r="C39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" ht="16.5" customHeight="1">
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3491,69 +5073,69 @@
         <v>58</v>
       </c>
       <c r="C40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3561,9 +5143,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -4517,40 +6099,37 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.14"/>
-    <col customWidth="1" min="2" max="2" width="76.43"/>
-    <col customWidth="1" min="3" max="3" width="23.57"/>
-    <col customWidth="1" min="4" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="24.57"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4570,7 +6149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +6169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4610,908 +6189,908 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="51.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6" t="s">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9" t="s">
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
+      <c r="C42" s="10">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16" t="s">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16" t="s">
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
+      <c r="C55" s="12">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
+        <v>3</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="15" t="s">
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A59" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9" t="s">
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="B61" s="18"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="B62" s="18"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="B63" s="18"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="B64" s="18"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="B66" s="18"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="B69" s="18"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="B70" s="18"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="B71" s="18"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="B73" s="18"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+      <c r="C60" s="9">
+        <v>3</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B61" s="14"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B62" s="14"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B63" s="14"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B64" s="14"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B65" s="14"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B67" s="14"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B68" s="14"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -6433,38 +8012,35 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="80.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6484,7 +8060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6504,7 +8080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6524,290 +8100,290 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="15">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -7777,33 +9353,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7823,7 +9396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +9416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7863,7 +9436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -7871,19 +9444,19 @@
         <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -7891,60 +9464,60 @@
         <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="C9" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="C11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="C12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="C13" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -7952,13 +9525,13 @@
         <v>125</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -7966,15 +9539,15 @@
         <v>125</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="C16" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>62</v>
@@ -8965,39 +10538,36 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P1009"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="84.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="43.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9017,7 +10587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +10607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9057,513 +10627,513 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+      <c r="B6" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23">
-        <v>11.0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="23">
-        <v>13.0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23">
-        <v>15.0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23">
-        <v>16.0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14">
+        <v>11</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B30" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="C30" s="14">
+        <v>6</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="18">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="B33" s="18" t="s">
+      <c r="C32" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B33" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="B35" s="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B35" s="14"/>
       <c r="C35" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="B36" s="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B36" s="14"/>
       <c r="C36" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="B67" s="18"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="B70" s="18"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="B71" s="18"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="64" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -10494,10 +12064,9 @@
     <row r="1008" ht="16.5" customHeight="1"/>
     <row r="1009" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Prologue/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571943F1-61AF-6449-BE30-5698B9ABDA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="!Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="prologue 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="prologue 2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="prologue 3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="naru iteration" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="story1 interaction" sheetId="6" r:id="rId9"/>
+    <sheet name="!Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="prologue 1" sheetId="2" r:id="rId2"/>
+    <sheet name="prologue 2" sheetId="3" r:id="rId3"/>
+    <sheet name="prologue 3" sheetId="4" r:id="rId4"/>
+    <sheet name="naru iteration" sheetId="5" r:id="rId5"/>
+    <sheet name="story1 interaction" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="q27Jv54fdpFMyai5Q7IqRAldkQQRv0wP7E7m0JwLHq8="/>
@@ -21,26 +30,49 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXs
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpW0
 UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXg
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
@@ -53,11 +85,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXs
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpW4
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -79,31 +139,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - true, false 다음 Index로 Auto 여부 (Default - true)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpW0
-UISU    (2023-06-15 23:16:56)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgus+Kee4Pc9a/pZxuh1/RHIcR2fQ=="/>
     </ext>
   </extLst>
@@ -111,14 +152,21 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpYE
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -134,23 +182,19 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXM
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXI
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
@@ -163,11 +207,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXM
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXA
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -189,11 +261,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg52Yu9O6MDDHa8kWXZDTxZiOIgfQ=="/>
     </ext>
   </extLst>
@@ -201,14 +274,94 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXE
+UISU    (2023-06-15 23:16:56)
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXQ
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpWo
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXw
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -230,60 +383,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXQ
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXE
-UISU    (2023-06-15 23:16:56)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpWo
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgL2DU1HqRV2jR/8lT5D0MykK1Z2Q=="/>
     </ext>
   </extLst>
@@ -291,26 +396,21 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXk
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXc
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -326,37 +426,19 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpWw
-서 의수    (2023-06-15 23:16:56)
-이미 사용하고 있는 구분자
-:, ()
-- 아이템 획득, 수거 (모든 타입에서 가능. 단, 일부 (Random 혹은 Choice 관련 안됨.))
-v0 : v1 (여러개 가능 - ex) Bag:Add, Cap:Add)
-v0 - Item name
-v1 - Add, Remove
-- 1 (Script)
-0: 스킵 불가능
-1(value) : {$value}배속
-- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
-v0, v1 (순서 무관)
-v0 - Left, Right
-v1 - Appear, Active, Inactive, Disappear
-- 컷씬
-v0, v1, v2, v3 (순서 무관)
-v0 - Hold, None (Default - None)   (대소문자 무관)
-v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
-v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
-v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpWs
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
@@ -369,11 +451,1205 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXk
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAzX7jpWw
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>의수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    (2023-06-15 23:16:56)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사용하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>구분자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:, ()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>수거</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>모든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>타입에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>단</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>일부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Random </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Choice </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>관련</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안됨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.))
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>v0 : v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>여러개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v0 - Item name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v1 - Add, Remove
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 1 (Script)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스킵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>불가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>1(value) : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>배속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>등장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Script, ImmediatelyExecute</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>v0, v1 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v0 - Left, Right
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v1 - Appear, Active, Inactive, Disappear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>컷씬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>v0, v1, v2, v3 (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>순서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>v0 - Hold, None (Default - None)   (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>v1 - value : {$value}</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스킵이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가능해진다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(number)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v2 - True, False </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>다음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Index</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Auto </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>여부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Default - True)  (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대소문자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>무관</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">v3 - name=value (Resources/Timeline/{$value}) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>폴더에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>불러옴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>넣는다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. (string)</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj6Xs7lLyOrdQxKWXZOW2QW8Cm9gg=="/>
     </ext>
   </extLst>
@@ -381,14 +1657,21 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C4">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpX0
 UISU    (2023-06-15 23:16:56)
 0: NONE
@@ -404,11 +1687,64 @@
 6: CutScene
 7: WaitInteract
 8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXU
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpXY
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpXo
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -430,24 +1766,63 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E4">
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5NSPqA1VR7X3QvrZ94OlBG4fPrQ=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXY
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpX4
 UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
+0: NONE
+1: 대화
+2: 선택지 (1, 2, 3)
+3: 선택지 종료
+4: 맵 이동 (이동할 Scene 이름 - contents)
+5: Save
+9: Random
+10: Random End
+11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
+// Inspector창에서 직접 조정
+6: CutScene
+7: WaitInteract
+8: Interact</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpXU
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpW8
 UISU    (2023-06-15 23:16:56)
 Dubby = -1,
     Keep = 0,
@@ -459,26 +1834,39 @@
     Dog = 6,
     PhotographerSon = 7,
     PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5NSPqA1VR7X3QvrZ94OlBG4fPrQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F4">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpX8
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAzX7jpYA
 서 의수    (2023-06-15 23:16:56)
 이미 사용하고 있는 구분자
@@ -500,60 +1888,12 @@
 v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
 v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
 v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpX8
-UISU    (2023-06-15 23:16:56)
-Default = -1
-Keep = 0 (이전 유지), (기본)
-Action1 = 1
-…
-Option에서 Left or Right 필수</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpX4
-UISU    (2023-06-15 23:16:56)
-0: NONE
-1: 대화
-2: 선택지 (1, 2, 3)
-3: 선택지 종료
-4: 맵 이동 (이동할 Scene 이름 - contents)
-5: Save
-9: Random
-10: Random End
-11: Immediately Execute (대사 없이 바로 캐릭터 State를 변경하는 용도로 사용합니다. ex) Left, Appear와 Right, Appear를 동시에 사용하고 싶은 경우)
-// Inspector창에서 직접 조정
-6: CutScene
-7: WaitInteract
-8: Interact</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D4">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAzX7jpW8
-UISU    (2023-06-15 23:16:56)
-Dubby = -1,
-    Keep = 0,
-    None = 1,
-    Protagonist = 2,
-    Naru = 3,
-    Photographer = 4,
-    Doctor = 5,
-    Dog = 6,
-    PhotographerSon = 7,
-    PhotographerWife = 8,</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhUazQFS8XE3lj4jjWRLEabD6oYOg=="/>
     </ext>
   </extLst>
@@ -561,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="158">
   <si>
     <t>파일명</t>
   </si>
@@ -663,34 +2003,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>우리는 그들을 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>‘길을 잃은 사람들’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>이라고 불러.</t>
     </r>
@@ -707,26 +2055,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>그래. 예를 들자면 그들 중 대다수가 향했던 곳이 &lt;b&gt;'</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>르뤼에 파편연못’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/b&gt;이었다던가.</t>
     </r>
@@ -734,26 +2086,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>‘르뤼에 파편연못’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/b&gt;···.</t>
     </r>
@@ -777,34 +2133,42 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>‘정체 불명의 목걸이’</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>를 획득하였다.</t>
     </r>
@@ -885,43 +2249,53 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>이곳</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘허수 공간’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>에는 다양한</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘기억’&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>들이 존재해.</t>
     </r>
@@ -934,26 +2308,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>···그저 네가 원하는 만큼</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;‘기억’들의 이야기를 들어주면 돼.&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 간단하지?</t>
     </r>
@@ -1043,26 +2421,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;만족&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1096,26 +2480,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;&lt;만족&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>을 회수당했다!</t>
     </r>
@@ -1126,26 +2516,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠 &lt;b&gt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>&lt;인내&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>을 획득하였다.</t>
     </r>
@@ -1156,26 +2552,32 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>열쇠</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> &lt;b&gt;&lt;인내&gt;&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
       <t>를 회수당했다!</t>
     </r>
@@ -1328,34 +2730,84 @@
   </si>
   <si>
     <t>나는 최선을 다 했어···.</t>
+  </si>
+  <si>
+    <t>NaruDoll:Add</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1363,7 +2815,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1403,7 +2855,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1417,124 +2875,93 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1724,31 +3151,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="37.71"/>
-    <col customWidth="1" min="3" max="26" width="8.86"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +3217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1819,24 +3248,24 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
       <c r="C6" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1844,13 +3273,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1858,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,13 +3301,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,18 +3315,18 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
-    <row r="16" ht="16.5" customHeight="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -2883,39 +4312,36 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="77.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="48.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +4361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +4381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2975,7 +4401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2983,17 +4409,17 @@
         <v>29</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -3001,17 +4427,17 @@
         <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -3019,15 +4445,15 @@
         <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3035,39 +4461,39 @@
         <v>25</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3075,15 +4501,15 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -3091,13 +4517,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -3105,97 +4531,97 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -3203,15 +4629,15 @@
         <v>38</v>
       </c>
       <c r="C20" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3219,19 +4645,19 @@
         <v>39</v>
       </c>
       <c r="C21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3239,7 +4665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3247,19 +4673,19 @@
         <v>43</v>
       </c>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -3267,55 +4693,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="16.5" customHeight="1">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3323,15 +4749,15 @@
         <v>49</v>
       </c>
       <c r="C29" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -3339,15 +4765,15 @@
         <v>50</v>
       </c>
       <c r="C30" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -3355,15 +4781,15 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -3371,15 +4797,15 @@
         <v>51</v>
       </c>
       <c r="C32" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" ht="16.5" customHeight="1">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -3387,27 +4813,27 @@
         <v>52</v>
       </c>
       <c r="C33" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" ht="16.5" customHeight="1">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C34" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" ht="16.5" customHeight="1">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
@@ -3415,13 +4841,13 @@
         <v>54</v>
       </c>
       <c r="C35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" ht="16.5" customHeight="1">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -3429,45 +4855,45 @@
         <v>29</v>
       </c>
       <c r="C36" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" ht="16.5" customHeight="1">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" ht="16.5" customHeight="1">
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -3475,15 +4901,15 @@
         <v>57</v>
       </c>
       <c r="C39" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" ht="16.5" customHeight="1">
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
@@ -3491,69 +4917,69 @@
         <v>58</v>
       </c>
       <c r="C40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" ht="16.5" customHeight="1">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3561,9 +4987,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -4517,40 +5943,37 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.14"/>
-    <col customWidth="1" min="2" max="2" width="76.43"/>
-    <col customWidth="1" min="3" max="3" width="23.57"/>
-    <col customWidth="1" min="4" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="24.57"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4570,7 +5993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +6013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4610,908 +6033,908 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="51.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6" t="s">
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9" t="s">
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
+      <c r="C42" s="10">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16" t="s">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="15" t="s">
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="15" t="s">
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>3</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A52" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>3</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16" t="s">
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
+      <c r="C55" s="12">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="15" t="s">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15" t="s">
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
+        <v>3</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="15" t="s">
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A59" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9" t="s">
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="B61" s="18"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="B62" s="18"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="B63" s="18"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="B64" s="18"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="B65" s="18"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="B66" s="18"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="B67" s="18"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="B68" s="18"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="B69" s="18"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="B70" s="18"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="B71" s="18"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="B73" s="18"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="B75" s="18"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c r="B76" s="18"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c r="B77" s="18"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+      <c r="C60" s="9">
+        <v>3</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B61" s="14"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B62" s="14"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B63" s="14"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B64" s="14"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B65" s="14"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B67" s="14"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B68" s="14"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -6433,38 +7856,37 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.43"/>
-    <col customWidth="1" min="2" max="2" width="80.43"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6484,7 +7906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -6504,7 +7926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6524,290 +7946,292 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="15">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -7777,33 +9201,30 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7823,7 +9244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +9264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7863,7 +9284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -7871,19 +9292,19 @@
         <v>29</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -7891,60 +9312,60 @@
         <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="C9" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="C11" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="C12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="C13" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -7952,13 +9373,13 @@
         <v>125</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -7966,15 +9387,15 @@
         <v>125</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="C16" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>62</v>
@@ -8965,39 +10386,36 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P1009"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="84.29"/>
-    <col customWidth="1" min="3" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="43.43"/>
-    <col customWidth="1" min="7" max="26" width="8.86"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9017,7 +10435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +10455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9057,513 +10475,513 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:16" ht="16.5" customHeight="1">
+      <c r="B6" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="B8" s="14"/>
       <c r="C8" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17">
+        <v>7</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
+    <row r="16" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23">
-        <v>11.0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="23">
-        <v>13.0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23">
-        <v>15.0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23">
-        <v>16.0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14">
+        <v>6</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14">
+        <v>11</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B30" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="18">
-        <v>6.0</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="C30" s="14">
+        <v>6</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="18">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c r="B33" s="18" t="s">
+      <c r="C32" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B33" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="B35" s="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B35" s="14"/>
       <c r="C35" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="B36" s="18"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B36" s="14"/>
       <c r="C36" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="B39" s="18"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="B44" s="18"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="B47" s="18"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="B66" s="18"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="B67" s="18"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="B70" s="18"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="B71" s="18"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="B72" s="18"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="64" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="65" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -10494,10 +11912,9 @@
     <row r="1008" ht="16.5" customHeight="1"/>
     <row r="1009" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Prologue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571943F1-61AF-6449-BE30-5698B9ABDA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EE477-C415-49BB-8AE6-88FE7D4B0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -1901,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="159">
   <si>
     <t>파일명</t>
   </si>
@@ -2393,9 +2393,6 @@
 늘 상 그랬듯이 네 선택은 곧 네 일부가 될 테니까.</t>
   </si>
   <si>
-    <t>말이 길어졌네. 직접 보여 줄게. 그래. 네 앞에 강아지, 보이지?</t>
-  </si>
-  <si>
     <t>(컷 씬)&gt; (컷 씬 전환): 가정집 배경 속 강아지와 그 앞의 밥그릇이 보인다.</t>
   </si>
   <si>
@@ -2733,6 +2730,14 @@
   </si>
   <si>
     <t>NaruDoll:Add</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>말이 길어졌네. 직접 보여 줄게. 그래. 네 앞에 강아지, 보이지?</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3165,11 +3170,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
@@ -4323,16 +4328,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -5952,19 +5957,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="76.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -6054,9 +6061,7 @@
       <c r="C6" s="9">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="H6" s="7"/>
@@ -6071,9 +6076,7 @@
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>3</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="H7" s="7"/>
@@ -6201,25 +6204,23 @@
       <c r="F16" s="9"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="6">
         <v>6</v>
@@ -6227,34 +6228,34 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -6264,7 +6265,7 @@
     <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
@@ -6277,10 +6278,10 @@
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -6288,18 +6289,14 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="A23" s="9"/>
       <c r="B23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
         <v>3</v>
       </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="H23" s="7"/>
@@ -6309,7 +6306,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -6324,7 +6321,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -6339,7 +6336,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
@@ -6354,7 +6351,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
@@ -6365,41 +6362,41 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="6">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -6411,10 +6408,10 @@
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6426,10 +6423,10 @@
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -6440,29 +6437,29 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="10">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -6471,10 +6468,10 @@
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
@@ -6486,10 +6483,10 @@
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -6501,10 +6498,10 @@
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
@@ -6516,10 +6513,10 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -6531,10 +6528,10 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="10">
         <v>1</v>
@@ -6546,10 +6543,10 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
@@ -6561,10 +6558,10 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
@@ -6575,36 +6572,32 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B42" s="11" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C42" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="F42" s="10"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -6613,22 +6606,26 @@
         <v>23</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -6639,27 +6636,27 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="A46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="12">
         <v>2</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="12">
-        <v>1</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -6668,10 +6665,10 @@
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -6683,10 +6680,10 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -6698,33 +6695,31 @@
     </row>
     <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="12">
-        <v>2</v>
-      </c>
+      <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
       </c>
       <c r="D51" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -6732,16 +6727,16 @@
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
       </c>
       <c r="D52" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -6749,16 +6744,16 @@
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
       </c>
       <c r="D53" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -6766,52 +6761,50 @@
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
       </c>
       <c r="D54" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A55" s="12"/>
+      <c r="A55" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B55" s="13" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="12">
         <v>6</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="12">
-        <v>1</v>
-      </c>
-      <c r="D56" s="12">
-        <v>3</v>
-      </c>
+      <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -6820,14 +6813,18 @@
         <v>23</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="12">
+        <v>3</v>
+      </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1">
@@ -6835,7 +6832,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
@@ -6847,10 +6844,10 @@
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -6861,20 +6858,31 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A61" s="9"/>
+      <c r="B61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C61" s="9">
         <v>3</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B61" s="14"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="16.5" customHeight="1">
@@ -6907,6 +6915,7 @@
     </row>
     <row r="69" spans="2:8" ht="16.5" customHeight="1">
       <c r="B69" s="14"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="2:8" ht="16.5" customHeight="1">
       <c r="B70" s="14"/>
@@ -6932,7 +6941,9 @@
     <row r="77" spans="2:8" ht="16.5" customHeight="1">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="78" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B78" s="14"/>
+    </row>
     <row r="79" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="80" spans="2:8" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
@@ -7855,6 +7866,7 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7867,23 +7879,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -7961,7 +7973,7 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -7969,7 +7981,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -7985,7 +7997,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -7999,7 +8011,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -8011,7 +8023,7 @@
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="15">
         <v>6</v>
@@ -8019,7 +8031,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -8027,7 +8039,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -8035,7 +8047,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -8043,7 +8055,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="15">
         <v>1</v>
@@ -8065,7 +8077,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
@@ -8073,7 +8085,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -8089,7 +8101,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -8102,10 +8114,10 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="15">
         <v>1</v>
@@ -8134,7 +8146,7 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>29</v>
@@ -8166,10 +8178,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -8182,10 +8194,10 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -9214,14 +9226,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -9286,7 +9298,7 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -9301,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -9318,7 +9330,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
@@ -9367,10 +9379,10 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -9384,7 +9396,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -10399,19 +10411,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="43.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P1" s="2"/>
     </row>
@@ -10477,10 +10489,10 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10489,12 +10501,12 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="B6" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -10502,10 +10514,10 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -10523,7 +10535,7 @@
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="14">
         <v>6</v>
@@ -10531,7 +10543,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
@@ -10545,7 +10557,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
@@ -10559,7 +10571,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
@@ -10573,7 +10585,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
@@ -10587,7 +10599,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
@@ -10601,7 +10613,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
@@ -10615,7 +10627,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
@@ -10629,7 +10641,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
@@ -10643,7 +10655,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
@@ -10657,7 +10669,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
@@ -10671,7 +10683,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
@@ -10685,7 +10697,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -10699,7 +10711,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
@@ -10713,7 +10725,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
@@ -10727,7 +10739,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
@@ -10741,7 +10753,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
@@ -10755,7 +10767,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
@@ -10769,15 +10781,15 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -10795,7 +10807,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="14">
         <v>1</v>
@@ -10816,13 +10828,13 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="B30" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="14">
         <v>6</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
@@ -10834,7 +10846,7 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="14">
         <v>4</v>
@@ -10842,7 +10854,7 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="B33" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -10850,10 +10862,10 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EE477-C415-49BB-8AE6-88FE7D4B0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89762E-2D4F-4FA7-B068-A331DBFCDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -70,6 +71,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -95,6 +97,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -115,6 +118,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -164,6 +168,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -192,6 +197,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -217,6 +223,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -237,6 +244,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -286,6 +294,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -314,6 +323,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -339,6 +349,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -359,6 +370,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -408,6 +420,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -436,6 +449,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -461,6 +475,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1669,6 +1684,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1697,6 +1713,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1722,6 +1739,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1742,6 +1760,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1791,6 +1810,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1819,6 +1839,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1844,6 +1865,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1864,6 +1886,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1901,7 +1924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="158">
   <si>
     <t>파일명</t>
   </si>
@@ -2705,9 +2728,6 @@
     <t>Hold, 1.5, name=Main/Stage1/#1-17</t>
   </si>
   <si>
-    <t>Hold, 1.5, name=Main/Stage1/#1-18</t>
-  </si>
-  <si>
     <t>···사, ···지··· 말라고···!!</t>
   </si>
   <si>
@@ -2715,9 +2735,6 @@
   </si>
   <si>
     <t>(컷 씬)&gt; (컷 씬 전환): 카메라(화면)이 암전 된다.</t>
-  </si>
-  <si>
-    <t>Hold, -1, name=Main/Stage1/#1-10</t>
   </si>
   <si>
     <t>SmallRoomScene</t>
@@ -2738,6 +2755,10 @@
   </si>
   <si>
     <t>말이 길어졌네. 직접 보여 줄게. 그래. 네 앞에 강아지, 보이지?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, -1, name=Main/Stage1/#1-18</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5959,7 +5980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
@@ -6213,7 +6234,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -6366,7 +6387,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -8047,7 +8068,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -10407,9 +10428,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P1009"/>
+  <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10771,22 +10794,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17">
-        <v>18</v>
+      <c r="A26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C26" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>149</v>
@@ -10794,132 +10817,112 @@
       <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B28" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="14">
+        <v>6</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="14">
         <v>4</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="14">
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B31" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14">
+    </row>
+    <row r="33" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B33" s="14"/>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B34" s="14"/>
+      <c r="C34" s="1">
         <v>11</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F34" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B30" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="14">
-        <v>6</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14">
-        <v>5</v>
-      </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B33" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+    <row r="35" spans="2:6" ht="16.5" customHeight="1">
       <c r="B35" s="14"/>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="36" spans="2:6" ht="16.5" customHeight="1">
       <c r="B36" s="14"/>
-      <c r="C36" s="1">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="37" spans="2:6" ht="16.5" customHeight="1">
       <c r="B37" s="14"/>
     </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+    <row r="38" spans="2:6" ht="16.5" customHeight="1">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+    <row r="39" spans="2:6" ht="16.5" customHeight="1">
       <c r="B39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+    <row r="40" spans="2:6" ht="16.5" customHeight="1">
       <c r="B40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1">
+    <row r="41" spans="2:6" ht="16.5" customHeight="1">
       <c r="B41" s="14"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+    <row r="42" spans="2:6" ht="16.5" customHeight="1">
       <c r="B42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+    <row r="43" spans="2:6" ht="16.5" customHeight="1">
       <c r="B43" s="14"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+    <row r="44" spans="2:6" ht="16.5" customHeight="1">
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+    <row r="45" spans="2:6" ht="16.5" customHeight="1">
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+    <row r="46" spans="2:6" ht="16.5" customHeight="1">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+    <row r="47" spans="2:6" ht="16.5" customHeight="1">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1">
+    <row r="48" spans="2:6" ht="16.5" customHeight="1">
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" ht="16.5" customHeight="1">
@@ -10958,34 +10961,30 @@
     <row r="60" spans="2:2" ht="16.5" customHeight="1">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B61" s="14"/>
-    </row>
-    <row r="62" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="64" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="61" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="62" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B64" s="14"/>
+    </row>
     <row r="65" spans="2:2" ht="16.5" customHeight="1">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B66" s="14"/>
-    </row>
-    <row r="67" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B67" s="14"/>
-    </row>
-    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="69" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="67" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B69" s="14"/>
+    </row>
     <row r="70" spans="2:2" ht="16.5" customHeight="1">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B72" s="14"/>
-    </row>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="75" spans="2:2" ht="16.5" customHeight="1"/>
@@ -11921,8 +11920,6 @@
     <row r="1005" ht="16.5" customHeight="1"/>
     <row r="1006" ht="16.5" customHeight="1"/>
     <row r="1007" ht="16.5" customHeight="1"/>
-    <row r="1008" ht="16.5" customHeight="1"/>
-    <row r="1009" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Prologue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89762E-2D4F-4FA7-B068-A331DBFCDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99E4D6-E7DC-AF43-832A-BD069CF7B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="prologue 3" sheetId="4" r:id="rId4"/>
     <sheet name="naru iteration" sheetId="5" r:id="rId5"/>
     <sheet name="story1 interaction" sheetId="6" r:id="rId6"/>
+    <sheet name="story2 interaction" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1923,8 +1924,723 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{DC98ACF2-BED8-C444-9558-E29C34BFE33A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAAzX7jpX4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">UISU    (2023-06-15 23:16:56)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0: NONE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (1, 2, 3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>맵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Scene </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - contents)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: Save
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">9: Random
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10: Random End
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>11: Immediately Execute (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>없이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>바로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> State</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>변경하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>용도로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사용합니다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. ex) Left, Appear</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Right, Appear</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>동시에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사용하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>싶은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>// Inspector</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>창에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: CutScene
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7: WaitInteract
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>8: Interact</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{05BC1AC9-EF5F-B34C-B978-34EEE54880D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpW8
+UISU    (2023-06-15 23:16:56)
+Dubby = -1,
+    Keep = 0,
+    None = 1,
+    Protagonist = 2,
+    Naru = 3,
+    Photographer = 4,
+    Doctor = 5,
+    Dog = 6,
+    PhotographerSon = 7,
+    PhotographerWife = 8,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{B296DB4A-EAA0-A641-88CE-10C2E7418941}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpX8
+UISU    (2023-06-15 23:16:56)
+Default = -1
+Keep = 0 (이전 유지), (기본)
+Action1 = 1
+…
+Option에서 Left or Right 필수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{8B8285D2-A0A7-5046-827B-03A458AF0776}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAzX7jpYA
+서 의수    (2023-06-15 23:16:56)
+이미 사용하고 있는 구분자
+:, ()
+- 아이템 획득, 수거 (모든 타입에서 가능. 단, 일부 (Random 혹은 Choice 관련 안됨.))
+v0 : v1 (여러개 가능 - ex) Bag:Add, Cap:Add)
+v0 - Item name
+v1 - Add, Remove
+- 1 (Script)
+0: 스킵 불가능
+1(value) : {$value}배속
+- 캐릭터 등장 (Script, ImmediatelyExecute에서 가능)
+v0, v1 (순서 무관)
+v0 - Left, Right
+v1 - Appear, Active, Inactive, Disappear
+- 컷씬
+v0, v1, v2, v3 (순서 무관)
+v0 - Hold, None (Default - None)   (대소문자 무관)
+v1 - value : {$value}초 이후 스킵이 가능해진다. 없으면 0초 후 가능(number)
+v2 - True, False 다음 Index로 Auto 여부 (Default - True)  (대소문자 무관)
+v3 - name=value (Resources/Timeline/{$value}) 폴더에서 불러옴, 없으면 직접 넣는다. (string)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="181">
   <si>
     <t>파일명</t>
   </si>
@@ -2761,12 +3477,123 @@
     <t>Hold, -1, name=Main/Stage1/#1-18</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>아이</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 일도 아닌 걸로 귀찮게 굴지 마.</t>
+  </si>
+  <si>
+    <t>이야기를 들려줘.</t>
+  </si>
+  <si>
+    <t>내 이야기를 들려 달라고?
+너도 참 별종이구나.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage2 - 아이</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리필드(??)</t>
+  </si>
+  <si>
+    <t>스토리필드(??)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 3, name=Main/Stage2/#1-1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-4</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-5</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-6</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-7</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-8</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-9</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-10</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-11</t>
+  </si>
+  <si>
+    <t>Hold, 1.5, name=Main/Stage2/#1-12</t>
+  </si>
+  <si>
+    <t>Hold, -1, name=Main/Stage2/#1-13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>뭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="A고딕12"/>
+      </rPr>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 할 말이라도 있어?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>···</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아. 재미없다고 투정 부리지나 마.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2833,6 +3660,31 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="A고딕12"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2914,7 +3766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2968,6 +3820,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3191,11 +4058,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
@@ -4351,14 +5218,14 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -5984,15 +6851,15 @@
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -7904,14 +8771,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="80.5" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -9247,9 +10114,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -10430,18 +11297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="7" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -11926,4 +12793,387 @@
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC236A-617C-7443-94AF-72164B656E6B}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17">
+        <v>12</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="14"/>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="14"/>
+      <c r="B24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="B25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="B27" s="14"/>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="B28" s="14"/>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Prologue/prologue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uisoo/Documents/GitHub/Project-Caterpillar/Assets/Editor/JsonUtility/JsonUtility/Prologue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA99E4D6-E7DC-AF43-832A-BD069CF7B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF231F-EE1F-46F7-82A9-1EE4403A85DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -2640,7 +2640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="185">
   <si>
     <t>파일명</t>
   </si>
@@ -3559,6 +3559,8 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="A고딕12"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>···</t>
     </r>
@@ -3588,12 +3590,48 @@
       <t>좋아. 재미없다고 투정 부리지나 마.</t>
     </r>
   </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 회수/Negative click button 09</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>path=BGM/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인 필드/사진사/시작/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AmbientMusicByMtBerkoo/Mt. Berkoo - Under A Cliff</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3673,6 +3711,8 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="A고딕12"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3686,6 +3726,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4058,11 +4111,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
@@ -5216,16 +5269,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -6845,21 +6900,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="76.5" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -7370,26 +7425,24 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
@@ -7401,10 +7454,10 @@
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -7416,10 +7469,10 @@
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C39" s="10">
         <v>1</v>
@@ -7431,10 +7484,10 @@
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
@@ -7446,10 +7499,10 @@
     </row>
     <row r="41" spans="1:8" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
@@ -7461,10 +7514,10 @@
     </row>
     <row r="42" spans="1:8" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -7475,36 +7528,32 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A43" s="11"/>
+      <c r="A43" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B43" s="11" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C43" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="F43" s="10"/>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A44" s="11"/>
       <c r="B44" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="10">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -7513,22 +7562,26 @@
         <v>23</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="10">
         <v>1</v>
@@ -7539,42 +7592,40 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="10">
+        <v>12</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A48" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C49" s="12">
         <v>2</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="12">
-        <v>1</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -7586,7 +7637,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -7597,68 +7648,60 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="12">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
       </c>
-      <c r="D52" s="12">
-        <v>3</v>
-      </c>
+      <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
       </c>
-      <c r="D53" s="12">
-        <v>2</v>
-      </c>
+      <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
       </c>
       <c r="D54" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -7666,34 +7709,36 @@
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C55" s="12">
         <v>1</v>
       </c>
       <c r="D55" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A56" s="12"/>
+      <c r="A56" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B56" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="12">
-        <v>6</v>
-      </c>
-      <c r="D56" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2</v>
+      </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="F56" s="12"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1">
@@ -7701,7 +7746,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -7710,146 +7755,204 @@
         <v>3</v>
       </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>100</v>
-      </c>
+      <c r="F57" s="12"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12">
+        <v>2</v>
+      </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A59" s="12"/>
       <c r="B59" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C59" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="12">
+        <v>3</v>
+      </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="12">
+        <v>1</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="12">
+        <v>12</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A65" s="9"/>
+      <c r="B65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C65" s="9">
         <v>3</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B62" s="14"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B63" s="14"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B64" s="14"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B65" s="14"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8" ht="16.5" customHeight="1">
+    <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="B66" s="14"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="2:8" ht="16.5" customHeight="1">
+    <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="B67" s="14"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1">
+    <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="B68" s="14"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="2:8" ht="16.5" customHeight="1">
+    <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="B69" s="14"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" customHeight="1">
+    <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="2:8" ht="16.5" customHeight="1">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="2:8" ht="16.5" customHeight="1">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="2:8" ht="16.5" customHeight="1">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="2:8" ht="16.5" customHeight="1">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:8" ht="16.5" customHeight="1">
+    <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:8" ht="16.5" customHeight="1">
+    <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" customHeight="1">
+    <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1">
+    <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="80" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="84" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="85" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="86" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="87" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="88" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="89" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="90" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="91" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="92" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="93" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="94" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="95" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="96" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="97" ht="16.5" customHeight="1"/>
     <row r="98" ht="16.5" customHeight="1"/>
     <row r="99" ht="16.5" customHeight="1"/>
@@ -8755,6 +8858,10 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8767,18 +8874,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -10112,11 +10219,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="B14:F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
@@ -11295,20 +11404,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P1007"/>
+  <dimension ref="A1:P1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="43.5" customWidth="1"/>
-    <col min="7" max="26" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
@@ -11414,32 +11523,28 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A8" s="1"/>
       <c r="B8" s="14"/>
       <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="14">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="17">
-        <v>2</v>
+      <c r="B10" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="14">
         <v>6</v>
@@ -11447,13 +11552,13 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14">
         <v>6</v>
@@ -11461,13 +11566,13 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="14">
         <v>6</v>
@@ -11475,13 +11580,13 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="14">
         <v>6</v>
@@ -11489,13 +11594,13 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="14">
         <v>6</v>
@@ -11503,13 +11608,13 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="14">
         <v>6</v>
@@ -11517,13 +11622,13 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="14">
         <v>6</v>
@@ -11531,13 +11636,13 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="14">
         <v>6</v>
@@ -11545,13 +11650,13 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="14">
         <v>6</v>
@@ -11559,13 +11664,13 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="14">
         <v>6</v>
@@ -11573,13 +11678,13 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="14">
         <v>6</v>
@@ -11587,13 +11692,13 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="14">
         <v>6</v>
@@ -11601,13 +11706,13 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="14">
         <v>6</v>
@@ -11615,13 +11720,13 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14">
         <v>6</v>
@@ -11629,13 +11734,13 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="14">
         <v>6</v>
@@ -11643,13 +11748,13 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="14">
         <v>6</v>
@@ -11657,29 +11762,29 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>148</v>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17">
+        <v>17</v>
       </c>
       <c r="C26" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -11689,107 +11794,118 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B29" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C29" s="14">
         <v>6</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="14">
-        <v>5</v>
-      </c>
-      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="14">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B31" s="14" t="s">
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B32" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="B34" s="14"/>
       <c r="C34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B35" s="14"/>
+      <c r="C35" s="1">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="B36" s="14"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
       <c r="B37" s="14"/>
     </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="B38" s="14"/>
     </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1">
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="B39" s="14"/>
     </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1">
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="B40" s="14"/>
     </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="B41" s="14"/>
     </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
       <c r="B42" s="14"/>
     </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="B43" s="14"/>
     </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="B45" s="14"/>
     </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1">
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" ht="16.5" customHeight="1">
@@ -11828,29 +11944,31 @@
     <row r="60" spans="2:2" ht="16.5" customHeight="1">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="61" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B61" s="14"/>
+    </row>
     <row r="62" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="63" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B63" s="14"/>
-    </row>
+    <row r="63" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="64" spans="2:2" ht="16.5" customHeight="1">
       <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:2" ht="16.5" customHeight="1">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="66" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B66" s="14"/>
+    </row>
     <row r="67" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="68" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B68" s="14"/>
-    </row>
+    <row r="68" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="69" spans="2:2" ht="16.5" customHeight="1">
       <c r="B69" s="14"/>
     </row>
     <row r="70" spans="2:2" ht="16.5" customHeight="1">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" ht="16.5" customHeight="1"/>
+    <row r="71" spans="2:2" ht="16.5" customHeight="1">
+      <c r="B71" s="14"/>
+    </row>
     <row r="72" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="73" spans="2:2" ht="16.5" customHeight="1"/>
     <row r="74" spans="2:2" ht="16.5" customHeight="1"/>
@@ -12787,6 +12905,7 @@
     <row r="1005" ht="16.5" customHeight="1"/>
     <row r="1006" ht="16.5" customHeight="1"/>
     <row r="1007" ht="16.5" customHeight="1"/>
+    <row r="1008" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12799,18 +12918,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC236A-617C-7443-94AF-72164B656E6B}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C15" sqref="B5:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="33.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12903,7 +13022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -12931,7 +13050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="14"/>
       <c r="B10" s="17">
         <v>1</v>
@@ -12945,7 +13064,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="17">
         <v>2</v>
@@ -12959,7 +13078,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="17">
         <v>3</v>
@@ -12973,7 +13092,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="17">
         <v>4</v>
@@ -12987,7 +13106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="17">
         <v>5</v>
@@ -13001,7 +13120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="17">
         <v>6</v>
@@ -13015,7 +13134,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="17">
         <v>7</v>
@@ -13029,7 +13148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="17">
         <v>8</v>
@@ -13043,7 +13162,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17">
         <v>9</v>
@@ -13057,7 +13176,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18">
+    <row r="19" spans="1:6" ht="33">
       <c r="A19" s="14"/>
       <c r="B19" s="17">
         <v>10</v>
@@ -13071,7 +13190,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18">
+    <row r="20" spans="1:6" ht="33">
       <c r="A20" s="14"/>
       <c r="B20" s="17">
         <v>11</v>
@@ -13085,7 +13204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18">
+    <row r="21" spans="1:6" ht="33">
       <c r="A21" s="14"/>
       <c r="B21" s="17">
         <v>12</v>
@@ -13099,7 +13218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18">
+    <row r="22" spans="1:6" ht="33">
       <c r="A22" s="14"/>
       <c r="B22" s="17">
         <v>13</v>
@@ -13113,7 +13232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17">
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>165</v>
@@ -13125,7 +13244,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="21" t="s">
         <v>164</v>
@@ -13137,7 +13256,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="18">
+    <row r="25" spans="1:6" ht="16.5">
       <c r="B25" s="14" t="s">
         <v>159</v>
       </c>
@@ -13145,7 +13264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17">
+    <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="20" t="s">
         <v>158</v>
       </c>
@@ -13156,13 +13275,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17">
+    <row r="27" spans="1:6" ht="16.5">
       <c r="B27" s="14"/>
       <c r="C27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17">
+    <row r="28" spans="1:6" ht="16.5">
       <c r="B28" s="14"/>
       <c r="C28" s="1">
         <v>11</v>
